--- a/projetos_de_lei.xlsx
+++ b/projetos_de_lei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:J394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9582,32 +9582,32 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PL 737/2019</t>
+          <t>PL 1123/2019</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Dispõe sobre a concessão do benefício de seguro desemprego, em casos de ocorrência de condições climáticas ou meteorológicas desfavoráveis à atividade e que inviabilizem o período de safra da pesca, ao pescador profissional que exerce a atividade pesqueira de forma artesanal em águas interiores ou continentais.</t>
+          <t>Acrescenta dispositivos à Lei nº 8.171, de 17 de janeiro de 1991, para conceder estímulos aos proprietários rurais que desenvolvam a agricultura orgânica e outras atividades de preservação ambiental.</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Ricardo Teobaldo</t>
+          <t>Rubens Otoni</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>PODE</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2191915</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193097</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9630,32 +9630,32 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PL 1561/2019</t>
+          <t>PL 1346/2021</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Dispõe sobre a climatização e conforto térmico em estabelecimentos públicos e privados de saúde.</t>
+          <t>Dispõe sobre a criação e manutenção em ambiente doméstico, de aves nativas, exóticas e domésticas para fins ornamentais, de canto ou como animal de estimação no Brasil.</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Edna Henrique</t>
+          <t>Reinhold Stephanes Junior</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>PSDB</t>
+          <t>PSD</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2194435</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2277757</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9664,7 +9664,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -9678,32 +9678,32 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PL 3961/2020</t>
+          <t>PL 351/2021</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Decreta o estado de emergência climática, estabelece a meta de neutralização das emissões de gases de efeito estufa no Brasil até 2050 e prevê a criação de políticas para a transição sustentável.</t>
+          <t>Torna o Pequi Goiano patrimônio cultural, ambiental e ecológico nacional.</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Alessandro Molon;Talíria Petrone</t>
+          <t>José Nelto</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>RJ;RJ</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>PSB;PSOL</t>
+          <t>PODE</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2258739</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2269833</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -9726,32 +9726,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PL 3950/2021</t>
+          <t>PL 1736/2022</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 9.394, de 20 de dezembro de 1996 (Lei de Diretrizes e Bases da Educação Nacional), para incluir conteúdo sobre mudanças climáticas nos currículos da educação básica.</t>
+          <t>Estabelece a adoção de ações públicas e privadas para prevenir e reduzir o desperdício de alimentos, com o objetivo explícito de contribuir para o desenvolvimento sustentável nos campos social, ambiental e econômico.</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Carlos Veras ;José Airton Félix Cirilo</t>
+          <t>Hildo Rocha</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PE;CE</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>PT;PT</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2306369</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2329965</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9760,7 +9760,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -9774,32 +9774,32 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PL 4129/2021</t>
+          <t>PL 1578/2022</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Dispõe sobre diretrizes gerais para a elaboração de planos de adaptação à mudança do clima.</t>
+          <t>Altera a Lei nº 12.512, de 14 de outubro de 2011, para dispor sobre o Programa de Apoio à Conservação Ambiental.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Tabata Amaral ;Nilto Tatto ;Joenia Wapichana ;Alessandro Molon ;Camilo Capiberibe ;Talíria Petrone</t>
+          <t>Airton Faleiro</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>SP;SP;RR;RJ;AP;RJ</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>PSB;PT;REDE;PSB;PSB;PSOL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2308223</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2326920</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9808,7 +9808,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -9822,32 +9822,32 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PL 528/2021</t>
+          <t>PL 2174/2022</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Regulamenta o Mercado Brasileiro de Redução de Emissões (MBRE), determinado pela Política Nacional de Mudança do Clima ? Lei nº 12.187, de 29 de dezembro de 2009.</t>
+          <t>Dispõe sobre a anistia de multas ambientais aplicadas por órgãos ambientais federais a produtores rurais, nas condições que especifica.</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Marcelo Ramos;AJ Albuquerque</t>
+          <t>Mara Rocha</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AM;CE</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>PL;PP</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2270639</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2333844</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9856,7 +9856,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -9870,32 +9870,32 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>PL 4088/2021</t>
+          <t>PL 737/2019</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Institui o Estatuto do Carbono Verde que dispõe sobre a regulamentação do Mercado Brasileiro de Redução de Emissões (MBRE) no âmbito dos povos tradicionais, do agronegócio e ecossistemas costeiros, determinado pela Política Nacional de Mudança do Clima - Lei nº 12.187, de 29 de dezembro de 2009, em conformidade com o Acordo de Paris sob a Convenção-Quadro das Nações Unidas sobre Mudança do Clima, inter alia.</t>
+          <t>Dispõe sobre a concessão do benefício de seguro desemprego, em casos de ocorrência de condições climáticas ou meteorológicas desfavoráveis à atividade e que inviabilizem o período de safra da pesca, ao pescador profissional que exerce a atividade pesqueira de forma artesanal em águas interiores ou continentais.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Cleber Verde</t>
+          <t>Ricardo Teobaldo</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>REPUBLIC</t>
+          <t>PODE</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2307775</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2191915</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
@@ -9918,32 +9918,32 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PL 4043/2021</t>
+          <t>PL 1561/2019</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Dispõe sobre diretrizes gerais para a elaboração de planos de adaptação à mudança do clima.</t>
+          <t>Dispõe sobre a climatização e conforto térmico em estabelecimentos públicos e privados de saúde.</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Tabata Amaral</t>
+          <t>Edna Henrique</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>PSDB</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2307466</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2194435</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -9966,32 +9966,32 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PL 2860/2022</t>
+          <t>PL 3961/2020</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Cria o Programa de Financiamento do Combate às Mudanças Climáticas, altera a Lei nº 10.179, de 6 de fevereiro de 2001, e dá outras providências.</t>
+          <t>Decreta o estado de emergência climática, estabelece a meta de neutralização das emissões de gases de efeito estufa no Brasil até 2050 e prevê a criação de políticas para a transição sustentável.</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Otto Alencar Filho</t>
+          <t>Alessandro Molon;Talíria Petrone</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>RJ;RJ</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>PSD</t>
+          <t>PSB;PSOL</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2339661</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2258739</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -10014,32 +10014,32 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PL 3008/2022</t>
+          <t>PL 3950/2021</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>"Altera o art. 74 da Lei nº 12.651, de 25 de maio de 2012, para tornar obrigatório o cumprimento de padrões ambientais compatíveis aos do Brasil, para a disponibilização de bens no mercado brasileiro; bem como acrescenta o art. 12-A na Lei nº 12.187, de 29 de dezembro de 2009, para estabelecer condições aos produtos oriundos da União Europeia, conforme Política Nacional sobre Mudança do Clima ? PNMC. Cria o Programa Due Diligencie Brasil. "</t>
+          <t>Altera a Lei nº 9.394, de 20 de dezembro de 1996 (Lei de Diretrizes e Bases da Educação Nacional), para incluir conteúdo sobre mudanças climáticas nos currículos da educação básica.</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Jose Mario Schreiner</t>
+          <t>Carlos Veras ;José Airton Félix Cirilo</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>PE;CE</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>PT;PT</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2343129</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2306369</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -10062,32 +10062,32 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PL 2984/2022</t>
+          <t>PL 4129/2021</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Dispõe sobre o Programa Nacional de Educação Climática nas Escolas.</t>
+          <t>Dispõe sobre diretrizes gerais para a elaboração de planos de adaptação à mudança do clima.</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Weliton Prado</t>
+          <t>Tabata Amaral ;Nilto Tatto ;Joenia Wapichana ;Alessandro Molon ;Camilo Capiberibe ;Talíria Petrone</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SP;SP;RR;RJ;AP;RJ</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>PROS</t>
+          <t>PSB;PT;REDE;PSB;PSB;PSOL</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2342991</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2308223</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -10110,32 +10110,32 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PL 71/2022</t>
+          <t>PL 528/2021</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Altera a Lei º 12.114, de 9 de dezembro de 2009, para permitir a destinação de recursos do Fundo Nacional sobre Mudança do Clima (FNMC) para enfrentamento de desastres naturais.</t>
+          <t>Regulamenta o Mercado Brasileiro de Redução de Emissões (MBRE), determinado pela Política Nacional de Mudança do Clima ? Lei nº 12.187, de 29 de dezembro de 2009.</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>José Nelto</t>
+          <t>Marcelo Ramos;AJ Albuquerque</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>AM;CE</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>PODE</t>
+          <t>PL;PP</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2313859</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2270639</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10144,7 +10144,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -10158,41 +10158,41 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PL 5574/2019</t>
+          <t>PL 4088/2021</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 9.503, de 23 de setembro de 1997, que institui o Código de Trânsito Brasileiro, para incluir representante do Ministério da Agricultura, Pecuária e Abastecimento na composição do Conselho Nacional de Trânsito - Contran.</t>
+          <t>Institui o Estatuto do Carbono Verde que dispõe sobre a regulamentação do Mercado Brasileiro de Redução de Emissões (MBRE) no âmbito dos povos tradicionais, do agronegócio e ecossistemas costeiros, determinado pela Política Nacional de Mudança do Clima - Lei nº 12.187, de 29 de dezembro de 2009, em conformidade com o Acordo de Paris sob a Convenção-Quadro das Nações Unidas sobre Mudança do Clima, inter alia.</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Arnaldo Jardim</t>
+          <t>Cleber Verde</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>CIDADANIA</t>
+          <t>REPUBLIC</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2225817</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2307775</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -10206,41 +10206,41 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PL 6028/2019</t>
+          <t>PL 4043/2021</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Estabelece a obrigatoriedade do uso de cães farejadores pelo Ministério da Agricultura, Pecuária e Abastecimento no combate ao ingresso de produtos de interesse agropecuário de uso proibido, restrito, controlado ou que ofereça risco agropecuário, e dá outras providências.</t>
+          <t>Dispõe sobre diretrizes gerais para a elaboração de planos de adaptação à mudança do clima.</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Neri Geller</t>
+          <t>Tabata Amaral</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2229763</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2307466</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
@@ -10254,41 +10254,41 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PL 3901/2019</t>
+          <t>PL 2860/2022</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 10.865, de 30 de abril de 2004, para reduzir a zero as alíquotas do PIS/PASEP e da COFINS incidentes sobre a receita bruta decorrente da venda no mercado interno de máquinas e equipamentos a agricultor familiar e empreendedor familiar rural.</t>
+          <t>Cria o Programa de Financiamento do Combate às Mudanças Climáticas, altera a Lei nº 10.179, de 6 de fevereiro de 2001, e dá outras providências.</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Fausto Pinato</t>
+          <t>Otto Alencar Filho</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>PSD</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2210928</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2339661</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
@@ -10302,41 +10302,41 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PL 6132/2019</t>
+          <t>PL 2984/2022</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Estabelece isenção do Imposto sobre Produtos Industrializados - IPI e do Imposto sobre Operações Financeiras - IOF nas aquisições e financiamentos de motocicletas realizados por agricultor inscrito no Programa Nacional de Fortalecimento da Agricultura Familiar (Pronaf).</t>
+          <t>Dispõe sobre o Programa Nacional de Educação Climática nas Escolas.</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>José Guimarães</t>
+          <t>Weliton Prado</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PROS</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2230504</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2342991</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -10350,41 +10350,41 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PL 2804/2019</t>
+          <t>PL 71/2022</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Dispõe sobre o percentual mínimo do valor repassado pelo Fundo Nacional de Desenvolvimento da Educação para o Programa Nacional de Alimentação Escolar a ser investido na compra direta de produtos de agricultura familiar e do empreendedor familiar rural.</t>
+          <t>Altera a Lei º 12.114, de 9 de dezembro de 2009, para permitir a destinação de recursos do Fundo Nacional sobre Mudança do Clima (FNMC) para enfrentamento de desastres naturais.</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Gustinho Ribeiro</t>
+          <t>José Nelto</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>SOLIDARI</t>
+          <t>PODE</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2201754</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2313859</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -10398,17 +10398,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>PL 6095/2019</t>
+          <t>PL 1673/2020</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.116, de 18 de maio de 2005, para ampliar o número de agricultores familiares sujeitos à redução de alíquotas para incidência da Contribuição para o PIS/Pasep e Contribuição Social para o Financiamento da Seguridade Social - Cofins.</t>
+          <t>Estende o auxílio emergencial, instituído pela Lei nº 13.982, de 2 de abril de 2020, para beneficiar cadastrados no Cadastro Nacional da Agricultura Familiar (CAF) e agricultores familiares de Municípios em estado de calamidade pública ou em situação de emergência devido a fatores climáticos em data que especifica.</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Jerônimo Goergen</t>
+          <t>Heitor Schuch</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -10418,21 +10418,21 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2230151</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2244905</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
@@ -10446,41 +10446,41 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PL 354/2019</t>
+          <t>PL 3220/2020</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Altera a redação do artigo 14 da Lei nº 11.947, de 16 de junho de 2009, para incluir a prioridade de aquisição de gêneros alimentícios da agricultura familiar aos produtores rurais familiares.</t>
+          <t>Dispõe sobre medidas emergenciais do plano de safra para o apoio aos agricultores familiares prejudicados por problemas climáticos e pela epidemia da covid-19.</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tereza Cristina</t>
+          <t>Celso Maldaner</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190933</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2254880</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -10494,41 +10494,41 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PL 5525/2019</t>
+          <t>PL 425/2022</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Dispõe sobre a concessão de bolsas de estudos para filhos de agricultores familiares vinculados ao Programa Nacional de Educação na Reforma Agrária - PRONERA e dá outras providências.</t>
+          <t>Cria o Programa de Incentivo à Adoção de Tecnologias Redutoras de Risco Agroclimático.</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Frei Anastacio Ribeiro</t>
+          <t>Marreca Filho</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PATRIOTA</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2225331</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2316670</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -10542,37 +10542,37 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PL 4451/2019</t>
+          <t>PL 4623/2019</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>"Dá nova redação ao caput do artigo 3º da Lei nº 11.326, de 24 de julho de 2006, que estabelece as diretrizes para a formulação da Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais".</t>
+          <t>Dispõe sobre a conservação, a restauração e o uso sustentável do bioma Caatinga.</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Marreca Filho</t>
+          <t>Pedro Augusto Bezerra</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>PATRIOTA</t>
+          <t>PTB</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2214943</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2216597</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I212" t="n">
@@ -10590,37 +10590,37 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>PL 1118/2019</t>
+          <t>PL 3117/2019</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Obriga hipermercados, supermercados e estabelecimentos similares a disporem de local específico para a venda de produtos provenientes da agricultura familiar.</t>
+          <t>Dispõe sobre o Regime de uso do bioma Cerrado, bem como da sua conservação, preservação, proteção, utilização e regeneração.</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Marreca Filho</t>
+          <t>Vicentinho Júnior</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>PATRI</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193081</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2204604</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I213" t="n">
@@ -10638,37 +10638,37 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>PL 471/2019</t>
+          <t>PL 5878/2019</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Altera os artigos 429 e 430 da Consolidação das Leis do Trabalho - CLT, a fim de dispor sobre a contratação de aprendizes pelos empreendimentos da agricultura familiar.</t>
+          <t>Dispõe sobre o incentivo e limites à geração de energia elétrica a partir de fonte hidráulica, solar, eólica, biomassa, cogeração qualificada e demais fontes definidas em normativos exarados pelo órgão competente referente à microgeração e minigeração distribuída aos sistemas de distribuição de energia elétrica e que façam jus à compensação.</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Célio Moura</t>
+          <t>Schiavinato</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2191179</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2228681</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I214" t="n">
@@ -10686,37 +10686,37 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PL 5856/2019</t>
+          <t>PL 364/2019</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Altera o art. 14 da Lei nº 11.947, de 16 de junho de 2009, que trata da aquisição direta da agricultura familiar de gêneros alimentícios, no âmbito do Programa Nacional de Alimentação Escolar.</t>
+          <t>Dispõe sobre a utilização e proteção da vegetação nativa dos Campos de Altitude associados ou abrangidos pelo bioma Mata Atlântica.</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Helio Lopes</t>
+          <t>Alceu Moreira</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>PSL</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2228312</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190986</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I215" t="n">
@@ -10734,37 +10734,37 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>PL 1327/2019</t>
+          <t>PL 3338/2019</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Altera o art. 14 da Lei nº 11.947, de 16 de junho de 2009, que estabelece o percentual mínimo de aquisição de gêneros alimentícios da agricultura familiar e do empreendedor familiar rural ou de suas organizações.</t>
+          <t>Dispõe sobre a conservação, o uso sustentável e a restauração da vegetação nativa do bioma Cerrado.</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Zé Carlos</t>
+          <t>Rodrigo Agostinho</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193563</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2206681</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I216" t="n">
@@ -10782,37 +10782,37 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PL 6267/2019</t>
+          <t>PL 6271/2019</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Altera os artigos 429 e 430 da Consolidação das Leis do Trabalho (CLT), a fim de dispor sobre a contratação de aprendizes pelos empreendimentos de agricultura familiar.</t>
+          <t>Dispõe Política Nacional de Proteção do Bioma Amazônia.</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Marreca Filho</t>
+          <t>Eduardo Costa</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>PATRIOTA</t>
+          <t>PTB</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2231730</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2231774</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I217" t="n">
@@ -10830,41 +10830,41 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PL 5000/2019</t>
+          <t>PL 4906/2020</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, para incluir entre os instrumentos para implementação da Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais, a obrigatoriedade aos órgãos e entidades da Administração Pública federal direta, autárquica e fundacional, de destinar percentual mínimo do total de recursos reservados à aquisição de gêneros alimentícios, para produtos de agricultores familiares, de suas cooperativas e associações.</t>
+          <t>Altera a redação do art. 41 da Lei 9.605 de 1988 para incluir o Bioma do Pantanal no tipo previsto no caput.</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Neri Geller</t>
+          <t>Célio Studart</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>PV</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2219856</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2264300</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -10878,41 +10878,41 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PL 1123/2019</t>
+          <t>PL 123/2020</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Acrescenta dispositivos à Lei nº 8.171, de 17 de janeiro de 1991, para conceder estímulos aos proprietários rurais que desenvolvam a agricultura orgânica e outras atividades de preservação ambiental.</t>
+          <t>Permite a venda do excedente de energia elétrica produzida por microgeração e minigeração distribuída quando produzida por fonte de energia de biomassa.</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Rubens Otoni</t>
+          <t>Schiavinato</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193097</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2236591</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
@@ -10926,41 +10926,41 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PL 1116/2019</t>
+          <t>PL 2601/2021</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Altera o art. 24 da Lei nº 8.666, de 21 de junho de 1993, para permitir aos estabelecimentos penais a aquisição de gêneros alimentícios diretamente da agricultura familiar.</t>
+          <t>Estabelece a Política de Proteção dos Biomas Nacionais.</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Marreca Filho</t>
+          <t>Professor Joziel</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>PATRI</t>
+          <t>PSL</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193078</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2291728</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -10974,45 +10974,45 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PL 149/2019</t>
+          <t>PL 53/2021</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Institui a Política Nacional de Incentivo à Agricultura de Precisão visando maior eficiência na aplicação de recursos e insumos de produção, de forma a diminuir o desperdício, reduzir os custos de produção, aumentar a produtividade, a lucratividade e a garantir a sustentabilidade ambiental.</t>
+          <t>DISPÕE SOBRE A INSTITUCIONALIZAÇÃO DO PROGRAMA ÁRVORES DA MEMÓRIA ? AME, MEDIANTE INCENTIVOS PÚBLICOS PARA O PLANTIO DE ÁRVORES NO BIOMA DA MATA ATLÂNTICA HOMENAGEANDO PESSOAS MORTAS EM DECORRÊNCIA DA COVID-19 .</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Heitor Schuch</t>
+          <t>Gervásio Maia;Camilo Capiberibe;Alessandro Molon;Lídice da Mata;Vilson da Fetaemg;Rodrigo Agostinho</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PB;AP;RJ;BA;MG;SP</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>PSB;PSB;PSB;PSB;PSB;PSB</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190623</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2268690</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Aprovado</t>
+          <t>Não Aprovado</t>
         </is>
       </c>
     </row>
@@ -11022,41 +11022,41 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PL 1831/2019</t>
+          <t>PL 4453/2021</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Altera a redação da Lei nº 11.326, de 24 de julho de 2006, para estabelecer desoneração tributária em benefício da Agricultura Familiar e Empreendimentos Familiares Rurais.</t>
+          <t>Institui o Programa Nacional de Conservação da Natureza em Áreas Urbanas, com a finalidade de conservar áreas de preservação de vegetação nativa ou replantação de acordo com plano de manejo do bioma em que está inserido, e autoriza deduzir do imposto sobre a renda devido pelas pessoas físicas e jurídicas parcela dos gastos efetivos com o referido programa; e altera a Lei nº 9.250, de 26 de dezembro de 1995.</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Severino Pessoa</t>
+          <t>Nereu Crispim</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>PRB</t>
+          <t>PSL</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2195806</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2312623</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -11070,41 +11070,41 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PL 6288/2019</t>
+          <t>PL 2844/2021</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, para dispor sobre a isenção de contribuições previdenciárias incidentes sobre as vendas de produtos da agricultura familiar.</t>
+          <t>Dispõe sobre diretrizes e ações da União, dos Estados, do Distrito Federal e dos Municípios, no que se refere à conservação e ao uso sustentável dos Biomas brasileiros, e cria o Fundo Biomas.</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Marreca Filho</t>
+          <t>Sergio Souza</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>PATRIOTA</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2231929</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2294380</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -11118,41 +11118,41 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PL 355/2019</t>
+          <t>PL 311/2022</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Institui a Política Nacional de Incentivo à Agricultura e Pecuária de Precisão.</t>
+          <t>Altera a Lei nº 12.651, de 25 de maio de 2012, para estabelecer a aplicação desta lei ao bioma Mata Atlântica em todo o território nacional.</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Tereza Cristina</t>
+          <t>Darci de Matos</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>PSD</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190934</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2314825</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -11166,41 +11166,41 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PL 361/2019</t>
+          <t>PL 2402/2022</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Institui a Política Nacional de Incentivo à Agricultura de Precisão.</t>
+          <t>Dispõe sobre a utilização e proteção da vegetação nativa do Bioma Amazônico, sobre os mecanismos econômicos de incentivo a bioeconomia amazônica e dá providências correlatas.</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Alceu Moreira</t>
+          <t>Marcelo Ramos</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>PSD</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190983</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2334829</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I225" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -11214,41 +11214,41 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PL 6414/2019</t>
+          <t>PL 548/2022</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Acrescenta artigo à Lei nº 11.326, de 24 de julho de 2006, para a criação do Observatório da Agricultura Familiar e dá outras providências.</t>
+          <t>Institui a política nacional de incentivo ao uso de Biomassa para a geração de energia.</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Frei Anastacio Ribeiro</t>
+          <t>Paulo Bengtson</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PTB</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2233806</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2317652</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -11262,41 +11262,41 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PL 6263/2019</t>
+          <t>PL 2561/2022</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 10.831, de 23 de dezembro de 2003, que "dispõe sobre a agricultura orgânica e dá outras providências", para disciplinar a rotulagem de produtos orgânicos e integrais.</t>
+          <t>Cria o programa de concessão de crédito bancário à pessoa física ou jurídica para fins de recuperação de áreas degradadas localizadas no bioma Cerrado, com o plantio de flora nativa.</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Felipe Carreras</t>
+          <t>Pinheirinho</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2231693</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2335289</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I227" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
@@ -11310,37 +11310,37 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PL 2614/2019</t>
+          <t>PL 6079/2019</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Dispõe sobre a responsabilidade civil do comerciante, fabricante, produtor, nacional ou estrangeiro, e importador de produtos agrotóxicos por danos causados a trabalhadores, agricultores, transportadores, consumidores ou pessoas que comprovadamente hajam entrado em contato com o produto por inalação, manipulação, ingestão ou qualquer outra forma.</t>
+          <t>Cria a Política Nacional de Incentivo ao Agroextrativismo Familiar na Amazônia e fundo nacional para apoiar essa política pública; altera as Leis nº 8.427, de 27 de maio de 1992, nº 10.696, de 2 de julho de 2003, e nº 12.512, de 14 de outubro de 2011.</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>João Daniel</t>
+          <t>Camilo Capiberibe</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2200103</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2230063</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I228" t="n">
@@ -11358,37 +11358,37 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PL 1522/2019</t>
+          <t>PL 5702/2019</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Dispõe sobre os empreendimentos de turismo rural da agricultura familiar.</t>
+          <t>Dispõe sobre o estabelecimento do Fundo Amazônia.</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Pastor Gildenemyr</t>
+          <t>Nilto Tatto</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>PMN</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2194251</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2227211</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I229" t="n">
@@ -11406,37 +11406,29 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PL 4920/2019</t>
+          <t>PL 6162/2019</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Obriga hipermercados, supermercados e estabelecimentos similares, cuja atividade preponderante seja a venda de alimentos, a ofertar aos consumidores um percentual mínimo de gêneros alimentícios de origem vegetal produzidos por agricultores familiares, empreendedores familiares rurais e suas organizações.</t>
+          <t>Institui o Plano Regional de Desenvolvimento da Amazônia para o período de 2020-2023.</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Frei Anastacio Ribeiro</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>PB</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
+          <t>Poder Executivo</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2219262</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2230646</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I230" t="n">
@@ -11454,41 +11446,41 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PL 2295/2019</t>
+          <t>PL 4531/2020</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 10.048, de 8 de novembro de 2000, para estabelecer a prioridade no Sistema Único de Saúde para agricultor familiar que more distante do local de atendimento.</t>
+          <t>Estabelece moratória para a supressão de vegetação nativa na Amazônia Legal, nos termos que especifica, e dá outras providências</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Zé Vitor</t>
+          <t>Nilto Tatto</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2198164</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2262784</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
@@ -11502,41 +11494,41 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PL 6501/2019</t>
+          <t>PL 4248/2020</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Acrescenta o § 4º ao art. 25 da Lei nº 10.438, de 26 de abril de 2002, para conceder ininterruptamente desconto tarifário concernente à energia elétrica consumida nas atividades de irrigação da agricultura familiar.</t>
+          <t>Dispõe sobre meta para universalização do acesso à energia elétrica na Região da Amazônia Legal, define critérios para execução de políticas de universalização de energia elétrica para regiões remotas durante a pandemia de coronavírus e altera a Lei nº 10.438, de 26 de abril de 2002.</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Marreca Filho</t>
+          <t>Airton Faleiro</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>PATRIOTA</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2234584</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2260585</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
@@ -11550,41 +11542,41 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PL 5826/2019</t>
+          <t>PL 415/2020</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, que estabelece as diretrizes para a formulação da Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais.</t>
+          <t>Institui o Fundo Amazônia.</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Carlos Henrique Gaguim</t>
+          <t>Senado Federal - Jorge Kajuri</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>CIDADANIA</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2228136</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2311938</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
@@ -11598,22 +11590,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PL 6276/2019</t>
+          <t>PL 5172/2020</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 13.340, de 28 de setembro de 2016, para conceder rebate para liquidação de operações de crédito rural do Programa Nacional de Fortalecimento da Agricultura Familiar e dá outras providências.</t>
+          <t>Cria a Zona Franca da Biodiversidade da Amazônia Legal, nas condições que especifica.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Heitor Freire</t>
+          <t>Nelson Barbudo</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -11623,16 +11615,16 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2231836</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2265216</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
@@ -11646,41 +11638,41 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PL 6475/2019</t>
+          <t>PL 3280/2021</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.343 de 23 de agosto de 2006, para estabelecer percentual mínimo destinado aos agricultores familiares ou empreendedores familiares rurais que atendam ao disposto no art. 3º da Lei nº 11.326, de 24 de julho de 2006, em caso de autorização para o plantio, a cultura e a colheita, dos vegetais e substratos dos quais possam ser extraídas ou produzidas drogas</t>
+          <t>Dispõe sobre a regularização documental de imóveis das ocupações incidentes em terras situadas em áreas rurais de domínio particular, fora da Amazônia Legal, e dá outras providências.</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>João Daniel</t>
+          <t>Heitor Schuch</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2234382</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2300019</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
@@ -11694,41 +11686,41 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PL 1124/2019</t>
+          <t>PL 143/2021</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Altera as Leis nº 10.696, de 2 de julho de 2003, e nº 8.427, de 27 de maio de 1992, para incluir produtos extrativos no Programa de Aquisição de Alimentos e para autorizar subvenção de preços em apoio à agricultura familiar.</t>
+          <t>Cria um certificado de sustentabilidade para produtos da biodiversidade da Amazônia protegidos por indicação geográfica.</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Rubens Otoni</t>
+          <t>Eduardo Costa</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PTB</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193098</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2268818</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
@@ -11742,22 +11734,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PL 3954/2019</t>
+          <t>PL 2673/2019</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 12.512, de 14 de outubro de 2011, para estabelecer, no âmbito da Administração Pública Federal, o percentual mínimo destinado à aquisição de gêneros alimentícios de agricultores familiares e suas organizações, empreendedores familiares rurais e demais beneficiários da Lei nº 11.326, de 24 de julho de 2006.</t>
+          <t>Altera a Lei nº 9.532, de 10 de dezembro de 1997, para aplicar o prazo de vigência dos benefícios fiscais das Áreas de Livre Comércio à Amazônia Ocidental.</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Julio Cesar Ribeiro</t>
+          <t>Capitão Alberto Neto</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11767,12 +11759,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2211478</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2200476</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I237" t="n">
@@ -11790,41 +11782,41 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PL 3547/2019</t>
+          <t>PL 2550/2021</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.947, de 16 de junho de 2009, para incluir as cooperativas formadas por agricultores familiares na ordem de prioridades para o fornecimento de alimentos no âmbito do Programa Nacional de Alimentação Escolar - Pnae, com recursos financeiros do Fundo Nacional de Desenvolvimento da Educação - FNDE.</t>
+          <t>Altera a Lei nº 11.952, de 25 de junho de 2009, que "Dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União, no âmbito da Amazônia Legal; altera as Leis nos 8.666, de 21 de junho de 1993, e 6.015, de 31 de dezembro de 1973; e dá outras providências", para dispor sobre a possibilidade de emissão da Certidão de Reconhecimento de Ocupação.</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Filipe Barros</t>
+          <t>Jaqueline Cassol</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>PSL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2208118</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2291073</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -11838,41 +11830,41 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PL 3821/2019</t>
+          <t>PL 3915/2021</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Acrescenta dispositivo ao art. 24 da Lei nº 8.666, de 21 de junho de 1993, para permitir aos estabelecimentos penais a aquisição direta de gêneros alimentícios da agricultura familiar.</t>
+          <t>Altera a Lei nº 11.952, de 25 de junho de 2009, que ?Dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União, no âmbito da Amazônia Legal; altera as Leis nº 8.666, de 21 de junho de 1993, e 6.015, de 31 de dezembro de 1973; e dá outras providências?.</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Rubens Otoni</t>
+          <t>Zé Vitor</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2210165</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2305948</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -11886,41 +11878,41 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>PL 4538/2019</t>
+          <t>PL 337/2022</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Institui a Política Nacional de Incentivo à Agricultura de Precisão.</t>
+          <t>Altera a redação do inciso I do art. 3º da Lei nº 12.651, de 25 de maio de 2012, para excluir o Mato Grosso da Amazônia Legal.</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Marreca Filho</t>
+          <t>Juarez Costa</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>PATRIOTA</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2215691</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2314952</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I240" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
@@ -11934,37 +11926,37 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>PL 2918/2019</t>
+          <t>PL 2497/2019</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 12.188, de 11 de janeiro de 2010, para possibilitar o aproveitamento das entidades executoras do Programa Nacional de Assistência Técnica e Extensão Rural na Agricultura Familiar e na Reforma Agrária - Pronater, para auxílio no processo de inscrição em cadastro para programas sociais do Governo Federal.</t>
+          <t>Altera a Lei nº 11.959, de 29 de junho de 2009, que "Dispõe sobre Política Nacional de Desenvolvimento Sustentável da Aquicultura e da Pesca", para incluir entre as competências do Poder Público, as ações de repovoamento com alevinos nas águas interiores e continentais. NOVA EMENTA: Altera a Lei nº 11.959, de 29 de junho de 2009, para incluir nas competências do poder público as ações de repovoamento com alevinos nas águas interiores e continentais.</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Pastor Gildenemyr</t>
+          <t>Aline Gurgel;Luiz Carlos;Vavá Martins</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>AP;AP;PA</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>PMN</t>
+          <t>PRB;PSDB;PRB</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2203522</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2199161</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I241" t="n">
@@ -11982,41 +11974,41 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PL 3663/2020</t>
+          <t>PL 2226/2019</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 8.080, de 19 de setembro de 1990, para estabelecer a prioridade de compra de alimentos da agricultura familiar e da pesca artesanal pelo Sistema Único de Saúde.</t>
+          <t>Dispões sobre o uso de bicicletas de propulsão elétrica, dotadas ou não de pedais acionados pelo condutor e de patinetes de propulsão elétrica. (PL Mobilidade Urbana Sustentável)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Professora Dayane Pimentel</t>
+          <t>Aureo Ribeiro</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>PSL</t>
+          <t>SOLIDARI</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2256875</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2197694</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
@@ -12030,41 +12022,41 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>PL 4879/2020</t>
+          <t>PL 618/2019</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Dispõe sobre os empreendimentos de turismo rural da agricultura familiar.</t>
+          <t>Altera a Lei n°11.959 de 29 de junho de 2009, que dispõe sobre a Política Nacional de Desenvolvimento Sustentável da Aquicultura e da Pesca, para disciplinar a pesca esportiva.</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Geninho Zuliani</t>
+          <t>Luiz Nishimori</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2264249</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2191650</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
@@ -12078,41 +12070,41 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>PL 900/2020</t>
+          <t>PL 4219/2019</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Dispõe sobre a suspensão da inscrição dos débitos oriundos dos financiamentos da Agricultura Familiar em dívida ativa.</t>
+          <t>Reduz a zero as alíquotas da contribuição para o PIS/PASEP e da Cofins, incidentes sobre receita bruta relativa às operações de compra e venda de energia elétrica destinada a comunidades indígenas, quilombolas e outras comunidades tradicionais residentes em áreas de floresta nacional, reserva extrativista e reserva de desenvolvimento sustentável.</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Rubens Otoni</t>
+          <t>Jesus Sérgio</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PDT</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2241804</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2213385</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
@@ -12126,17 +12118,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>PL 4371/2020</t>
+          <t>PL 1970/2019</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Altera dispositivos da Lei nº 12.188, de 11 de janeiro de 2010, que institui a Política Nacional de Assistência Técnica e Extensão Rural para a Agricultura Familiar e Reforma Agrária - PNATER e o Programa Nacional e Assistência Técnica e Extensão Rural na Agricultura Familiar e na Reforma Agrária - PRONATER, altera a Lei nº 8.666, de 21 de junho de 1993 e dá outras providências.</t>
+          <t>Institui a Política Nacional para o Manejo Sustentável, Plantio, Extração, Consumo, Comercialização e Transformação do Pequi e Demais Frutos e Produtos Nativos do Cerrado.</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Zé Silva</t>
+          <t>Rogério Correia</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -12146,21 +12138,21 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>SOLIDARI</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2261120</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2196486</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I245" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
@@ -12174,41 +12166,41 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>PL 787/2020</t>
+          <t>PL 4778/2019</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Dispõe sobre o Auxílio Emergencial Financeiro destinado a agricultores familiares e empreendedores familiares rurais em situação de isolamento ou quarentena, em razão da pandemia do COVID-19.</t>
+          <t>Institui a Política Nacional de Desenvolvimento Rural Sustentável em Microbacias Hidrográficas e dá outras providências.</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Natália Bonavides</t>
+          <t>Christino Aureo</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>RN</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2241630</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2217861</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -12222,41 +12214,41 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>PL 465/2020</t>
+          <t>PL 2877/2019</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Altera o art. 14 da Lei nº 11.947, de 16 de junho de 2009, para elevar o percentual mínimo de aquisições de gêneros alimentícios da agricultura familiar no âmbito do PNAE com recursos repassados pelo FNDE.</t>
+          <t>Altera a Lei n°11.959 de 29 de junho de 2009, que dispõe sobre a Política Nacional de Desenvolvimento Sustentável da Aquicultura e da Pesca, para disciplinar a pesca esportiva.</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Gil Cutrim</t>
+          <t>Nelson Barbudo</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>PDT</t>
+          <t>PSL</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2238198</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2203210</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I247" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
@@ -12270,41 +12262,41 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>PL 2439/2020</t>
+          <t>PL 6424/2019</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Institui desconto nas tarifas de energia elétrica das unidades consumidoras da classe rural cujo titular seja enquadrado como agricultor familiar, mediante alteração da Lei nº 10.438, de 26 de abril de 2002.</t>
+          <t>Institui o "PIC Sustentável - Programa de Incentivo a Construção ou Reforma Sustentável de Residências" e dá outras providências.</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Vicentinho</t>
+          <t>Gildenemyr</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2251876</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2233846</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
@@ -12318,37 +12310,37 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>PL 2853/2020</t>
+          <t>PL 572/2020</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Institui linha emergencial de crédito no âmbito do Programa Nacional de Fortalecimento da Agricultura Familiar (Pronaf).</t>
+          <t>Dispõe sobre o sistema nacional de redução de emissões por desmatamento e degradação, conservação, manejo florestal sustentável, manutenção e aumento dos estoques de carbono florestal (REDD+), e dá outras providências.</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Zé Neto ;Nilto Tatto ;João Daniel ;Pedro Uczai ;Marcon ;Reginaldo Lopes ;Padre João ;Patrus Ananias ;Alexandre Padilha ;Jorge Solla ;Paulo Teixeira ;Valmir Assunção ;Rejane Dias ;Erika Kokay ;Enio Verri ;Marília Arraes ;Rogério Correia ;Célio Moura ;Beto Faro ;Joseildo Ramos ;Airton Faleiro ;Waldenor Pereira ;Vicentinho ;Vander Loubet ;Luizianne Lins ;Margarida Salomão ;Natália Bonavides ;Afonso Florence ;Maria do Rosário ;Rubens Otoni ;José Ricardo ;Frei Anastacio Ribeiro ;Carlos Veras ;Profess e Outros.</t>
+          <t>Capitão Alberto Neto</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>BA;SP;SE;SC;RS;MG;MG;MG;SP;BA;SP;BA;PI;DF;PR;PE;MG;TO;PA;BA;PA;BA;SP;MS;CE;MG;RN;BA;RS;GO;AM;PB;PE;MT;PR;CE;MG;MA;RS;SP;CE;SP;MG;RS</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PSB;PSB</t>
+          <t>REPUBLIC</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2253607</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2238590</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I249" t="n">
@@ -12366,41 +12358,41 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>PL 3463/2020</t>
+          <t>PL 4516/2021</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Cria o Plano Emergencial de Compra Direta da Agricultura Familiar enquanto durar o período de emergencia reconhecido pelo Decreto Legislativo n. 6, de 20 de março de 2020.</t>
+          <t>Altera a Lei nº 12.431, de 24 de junho de 2011, para consolidar o incentivo à emissão de debêntures destinadas a projetos de investimento em desenvolvimento sustentável (debêntures verdes).</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Reginaldo Lopes ;Bira do Pindaré</t>
+          <t>Tabata Amaral ;Joenia Wapichana ;Nilto Tatto ;Rodrigo Agostinho ;Felipe Rigoni</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>MG;MA</t>
+          <t>SP;RR;SP;SP;ES</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>PT;PSB</t>
+          <t>PSB;REDE;PT;PSB;PSB</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2255923</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2313074</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
@@ -12414,22 +12406,22 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PL 344/2020</t>
+          <t>PL 1308/2021</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 9.433, de 8 de janeiro de 1997, para isentar de cobrança pelo uso de recursos hídricos os agricultores familiares e empreendedores familiares rurais beneficiários da Lei nº 11.326, de 24 de julho de 2006.</t>
+          <t>Institui a Política de Promoção da Agenda 2030 para o Desenvolvimento Sustentável.</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Helder Salomão</t>
+          <t>Nilto Tatto</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -12439,16 +12431,16 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2237669</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2277431</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I251" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -12462,41 +12454,41 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>PL 2235/2020</t>
+          <t>PL 2413/2022</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 10.420, de 10 de abril de 2002, que cria o Fundo Garantia-Safra e institui o Benefício Garantia-Safra, destinado a agricultores familiares vitimados pelo fenômeno da estiagem ou excesso hídrico, nas regiões que especifica, para autorizar, em caráter excepcional, o recebimento do benefício em caso de decretação de situação de emergência ou estado de calamidade pública em razão de epidemia ou de pandemia.</t>
+          <t>Cria o Programa Nacional de Agricultura Sustentável e dá outras providências.</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Carlos Veras;Patrus Ananias;Bira do Pindaré</t>
+          <t>Rubens Pereira Júnior</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>PE;MG;MA</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>PT;PT;PSB</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2250751</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2334931</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I252" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
@@ -12510,41 +12502,41 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PL 584/2020</t>
+          <t>PL 59/2022</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Altera a redação das Leis nº 10.336, de 2001, 10.485, de 2002, e 10.925, de 2004, para desonerar da Contribuição para o PIS/Pasep, da Cofins e da CIDE-Combustíveis o óleo diesel ou biodiesel utilizados na produção e no transporte de produtos agropecuários produzidos pela agricultura familiar.</t>
+          <t>Cria o Programa Dinheiro Direto na Escola para promoção da sustentabilidade (PDDE Sustentável).</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Marcelo Brum</t>
+          <t>Tabata Amaral ;Professor Israel Batista</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SP;DF</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>PSL</t>
+          <t>PSB;PV</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2238632</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2313848</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I253" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
@@ -12558,45 +12550,45 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PL 735/2020</t>
+          <t>PL 747/2022</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Fica criado o abono destinado a feirantes e agricultores familiares que se encontram em isolamento ou quarentena em razão da pandemia do COVID-19, consoante a Lei 13.979, de 6 de fevereiro de 2020, e que apresentam-se impossibilitados de comercializar sua produção também por medidas determinadas pelos executivos municipais. NOVA EMENTA: Dispõe sobre medidas emergenciais de amparo aos agricultores familiares do Brasil para mitigar os impactos socioeconômicos da Covid-19; altera as Leis nºs 13.340 ...</t>
+          <t>Altera a Lei nº 11.959, de 29 de junho de 2009, que dispõe sobre a Política Nacional de Desenvolvimento Sustentável da Aquicultura e da Pesca, regula as atividades pesqueiras, revoga a Lei nº 7.679, de 23 de novembro de 1988, e dispositivos do Decreto-Lei nº 221, de 28 de fevereiro de 1967, e dá outras providências.</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Enio Verri;Célio Moura;José Guimarães;Helder Salomão;Pedro Uczai;Professora Rosa Neide;Waldenor Pereira;Erika Kokay;Maria do Rosário;Natália Bonavides;Marília Arraes;João Daniel;Carlos Veras;Valmir Assunção;Airton Faleiro;Vicentinho;Zeca Dirceu;Jorge Solla;Afonso Florence;Leonardo Monteiro;Beto Faro;Arlindo Chinaglia;Paulo Teixeira;Zé Carlos;Alexandre Padilha;Luizianne Lins;Marcon;Rogério Correia;Rejane Dias;Rubens Otoni;José Ricardo;José Airton Félix Cirilo;Nilto Tatto;Bohn Gass;Patrus Ananias; e Outros.</t>
+          <t>General Girão</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>PR;TO;CE;ES;SC;MT;BA;DF;RS;RN;PE;SE;PE;BA;PA;SP;PR;BA;BA;MG;PA;SP;SP;MA;SP;CE;RS;MG;PI;GO;AM;CE;SP;RS;MG;SP;PB;MG;MG;AL;BA;MS;RS;BA;PR;SP;MG;MG</t>
+          <t>RN</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2239605</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2318860</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I254" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Aprovado</t>
+          <t>Não Aprovado</t>
         </is>
       </c>
     </row>
@@ -12606,41 +12598,33 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>PL 486/2020</t>
+          <t>PL 234/2019</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, para incluir a redução das desigualdades sociais e regionais entre os princípios a serem observados pela Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais e determina ao poder público tratamento especial quanto a linhas de crédito rural e serviços de assistência técnica e extensão rural destinados a agricultores familiares e empreendimentos familiares rurais situados na Região do Marajó.</t>
+          <t>Dispõe sobre a adoção dos Objetivos de Desenvolvimento Sustentável da Organização das Nações Unidas, por parte das entidades que recebem verbas públicas.</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Senado Federal - Zequinha Marinho</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>PSC</t>
-        </is>
-      </c>
+          <t>Ney Leprevost</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2317628</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190743</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I255" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
@@ -12654,41 +12638,41 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PL 2851/2020</t>
+          <t>PL 4835/2019</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Cria o Programa de Fidelidade para Aquisição de Alimentos Orgânicos da Agricultura Familiar e da Reforma Agrária - PFA, com a finalidade de promover incentivo aos pequenos agricultores e dá outras providências.</t>
+          <t>Estabelece a obrigatoriedade do conter informações sobre o preparo sustentável de alimentos congelados.</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Gervásio Maia;Vilson da Fetaemg;Heitor Schuch</t>
+          <t>Felipe Carreras</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>PB;MG;RS</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>PSB;PSB;PSB</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2253603</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2218428</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I256" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
@@ -12702,41 +12686,41 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PL 1895/2020</t>
+          <t>PL 4447/2019</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Institui desconto nas tarifas de energia elétrica das unidades consumidoras da classe rural cujo titular seja enquadrado como agricultor familiar, mediante alteração da Lei nº 10.438, de 26 de abril de 2002.</t>
+          <t>Dispõe sobre o uso sustentável do solo e dos recursos naturais em terras indígenas.</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Vicentinho</t>
+          <t>Silas Câmara</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PRB</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2248249</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2214933</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -12750,37 +12734,37 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>PL 3170/2020</t>
+          <t>PL 4595/2020</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Dispõe sobre o Plano Emergencial de Amparo à Agricultura Familiar durante a vigência do estado de calamidade pública ou, transcorrida sua vigência, enquanto durarem medidas de quarentena e restrições de atividades no contexto da pandemia do COVID-19 (Novo Coronavírus).</t>
+          <t>Dispõe sobre a adoção dos Objetivos de Desenvolvimento Sustentável da Organização das Nações Unidas, por parte das entidades que recebem verbas públicas.</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Sâmia Bomfim;David Miranda;Fernanda Melchionna;Dagoberto Nogueira</t>
+          <t>Ney Leprevost</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>SP;RJ;RS;MS</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>PSOL;PSOL;PSOL;PDT</t>
+          <t>PSD</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2254752</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2262928</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Agricultura</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="I258" t="n">
@@ -12798,32 +12782,32 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PL 886/2020</t>
+          <t>PL 5574/2019</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Dispõe sobre medidas emergenciais de amparo aos agricultores familiares do Brasil para mitigar os impactos socioeconômicos da pandemia do COVID- 19, durante o período de vigor do estado de calamidade pública no país, e dá outras providências.</t>
+          <t>Altera a Lei nº 9.503, de 23 de setembro de 1997, que institui o Código de Trânsito Brasileiro, para incluir representante do Ministério da Agricultura, Pecuária e Abastecimento na composição do Conselho Nacional de Trânsito - Contran.</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Padre João;João Daniel;Célio Moura;Carlos Veras;Joseildo Ramos;Professora Rosa Neide;Valmir Assunção;Zé Carlos;Frei Anastacio Ribeiro;Pedro Uczai;Paulo Teixeira;Marcon;Alexandre Padilha</t>
+          <t>Arnaldo Jardim</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>MG;SE;TO;PE;BA;MT;BA;MA;PB;SC;SP;RS;SP</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT</t>
+          <t>CIDADANIA</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2241784</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2225817</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -12832,7 +12816,7 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
@@ -12846,32 +12830,32 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PL 3367/2020</t>
+          <t>PL 149/2019</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Autoriza o poder executivo a conceder auxílio financeiro temporário aos agricultores familiares e garante os recursos para compra da Agricultura Familiar através dos programas de Alimentação Escolar e PAA do produtor familiar no período de emergência reconhecido pelo Decreto Legislativo n. 6, de 20 de março de 2020.</t>
+          <t>Institui a Política Nacional de Incentivo à Agricultura de Precisão visando maior eficiência na aplicação de recursos e insumos de produção, de forma a diminuir o desperdício, reduzir os custos de produção, aumentar a produtividade, a lucratividade e a garantir a sustentabilidade ambiental.</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Reginaldo Lopes</t>
+          <t>Heitor Schuch</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2255391</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190623</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -12880,11 +12864,11 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Não Aprovado</t>
+          <t>Aprovado</t>
         </is>
       </c>
     </row>
@@ -12894,32 +12878,32 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PL 3452/2020</t>
+          <t>PL 355/2019</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Altera o art. 14 da Lei nº 11.947, de 16 de junho de 2009, para aumentar o repasse de recursos do PNAE destinados à aquisição de gêneros alimentícios diretamente da agricultura familiar e do empreendedor familiar rural ou de suas organizações providências.</t>
+          <t>Institui a Política Nacional de Incentivo à Agricultura e Pecuária de Precisão.</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Heitor Schuch</t>
+          <t>Tereza Cristina</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2255817</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190934</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -12928,7 +12912,7 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
@@ -12942,17 +12926,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>PL 1673/2020</t>
+          <t>PL 361/2019</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Estende o auxílio emergencial, instituído pela Lei nº 13.982, de 2 de abril de 2020, para beneficiar cadastrados no Cadastro Nacional da Agricultura Familiar (CAF) e agricultores familiares de Municípios em estado de calamidade pública ou em situação de emergência devido a fatores climáticos em data que especifica.</t>
+          <t>Institui a Política Nacional de Incentivo à Agricultura de Precisão.</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Heitor Schuch</t>
+          <t>Alceu Moreira</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -12962,12 +12946,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2244905</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190983</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -12976,7 +12960,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -12990,32 +12974,32 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PL 1585/2020</t>
+          <t>PL 4451/2019</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Estabelece benefício a empresas que adquirirem produtos da agricultura familiar e dá outras providências.</t>
+          <t>"Dá nova redação ao caput do artigo 3º da Lei nº 11.326, de 24 de julho de 2006, que estabelece as diretrizes para a formulação da Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais".</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Helder Salomão</t>
+          <t>Marreca Filho</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PATRIOTA</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2243112</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2214943</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -13024,7 +13008,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J263" t="inlineStr">
         <is>
@@ -13038,32 +13022,32 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>PL 1558/2020</t>
+          <t>PL 6267/2019</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Dispõe sobre o incentivo emergencial para a aquisição de produtos da agricultura familiar, visando amenizar os prejuízos da pandemia do Covid-19 e do estado de calamidade pública, reconhecido pelo Decreto Legislativo n. 6, de 20 de março de 2020 e dá outras providências.</t>
+          <t>Altera os artigos 429 e 430 da Consolidação das Leis do Trabalho (CLT), a fim de dispor sobre a contratação de aprendizes pelos empreendimentos de agricultura familiar.</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Vilson da Fetaemg ;Danilo Cabral ;Rosana Valle</t>
+          <t>Marreca Filho</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>MG;PE;SP</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>PSB;PSB;PSB</t>
+          <t>PATRIOTA</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2243076</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2231730</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -13072,7 +13056,7 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
@@ -13086,32 +13070,32 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>PL 1556/2020</t>
+          <t>PL 6414/2019</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Dispõe sobre medidas emergenciais de assistência aos agricultores familiares, para amenizar os prejuízos da pandemia do Covid-19 e do estado de calamidade pública e dá outras providências.</t>
+          <t>Acrescenta artigo à Lei nº 11.326, de 24 de julho de 2006, para a criação do Observatório da Agricultura Familiar e dá outras providências.</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Vilson da Fetaemg ;Danilo Cabral ;Ted Conti ;Denis Bezerra</t>
+          <t>Frei Anastacio Ribeiro</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>MG;PE;ES;CE</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>PSB;PSB;PSB;PSB</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2243074</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2233806</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -13120,7 +13104,7 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
@@ -13134,32 +13118,32 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>PL 3102/2020</t>
+          <t>PL 4538/2019</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Institui linha de crédito emergencial destinada ao refinanciamento de operações de custeio agropecuário e de investimento contratadas até 31 de dezembro de 2019, no âmbito do Programa Nacional de Fortalecimento da Agricultura Familiar (Pronaf) e do Programa Nacional de Apoio ao Médio Produtor Rural (Pronamp).</t>
+          <t>Institui a Política Nacional de Incentivo à Agricultura de Precisão.</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Jerônimo Goergen</t>
+          <t>Marreca Filho</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>PATRIOTA</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2254432</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2215691</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -13168,7 +13152,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
@@ -13182,32 +13166,32 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>PL 3157/2020</t>
+          <t>PL 4074/2021</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 13.340, de 28 de setembro de 2016, para dispor sobre a anistia de parcelas de dívidas repactuadas de crédito rural da agricultura familiar com vencimento no ano de 2020.</t>
+          <t>Dispõe sobre a sobre a reserva de áreas para implementação de sistemas produtivos de agricultura urbana ou periurbana no âmbito de programas habitacionais públicos federais ou financiados com recursos públicos federais.</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Júnior Mano</t>
+          <t>Célio Moura ;Nilto Tatto ;João Daniel ;Marília Arraes ;Beto Faro ;Bohn Gass ;Patrus Ananias ;Leonardo Monteiro ;Rogério Correia ;José Ricardo ;Enio Verri ;Rejane Dias ;Marcon ;Paulo Guedes ;Paulão ;Frei Anastacio Ribeiro ;Valmir Assunção ;Professora Rosa Neide ;Alexandre Padilha ;José Guimarães ;Carlos Veras ;Leo de Brito;Airton Faleiro ;Helder Salomão ;Erika Kokay</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>TO;SP;SE;PE;PA;RS;MG;MG;MG;AM;PR;PI;RS;MG;AL;PB;BA;MT;SP;CE;PE;AC;PA;ES;DF</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2254726</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2307615</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -13216,7 +13200,7 @@
         </is>
       </c>
       <c r="I267" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
@@ -13230,32 +13214,32 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PL 3220/2020</t>
+          <t>PL 2296/2021</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Dispõe sobre medidas emergenciais do plano de safra para o apoio aos agricultores familiares prejudicados por problemas climáticos e pela epidemia da covid-19.</t>
+          <t>Institui o Dia Nacional da Agricultura Irrigada.</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Celso Maldaner</t>
+          <t>Professora Dorinha Seabra Rezende</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2254880</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2288020</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -13264,7 +13248,7 @@
         </is>
       </c>
       <c r="I268" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
@@ -13278,32 +13262,32 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>PL 4550/2021</t>
+          <t>PL 2977/2021</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Declara Patrono do Agricultor Familiar Brasileiro o Frei Egídio Maria Moscini.</t>
+          <t>Institui o Dia Nacional da Agricultura Irrigada.</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Senado Federal - Esperidião Amin</t>
+          <t>Professora Dorinha Seabra Rezende</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2332688</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2296383</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -13312,7 +13296,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
@@ -13326,32 +13310,32 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>PL 823/2021</t>
+          <t>PL 2291/2022</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Dispõe sobre medidas emergenciais de amparo aos agricultores familiares do Brasil para mitigar os impactos socioeconômicos da Covid?19; altera as Leis nºs 13.340, de 28 de setembro de 2016, e 13.606, de 9 de janeiro de 2018; e dá outras providências (Lei Assis Carvalho II). NOVA EMENTA: Dispõe sobre medidas emergenciais de amparo à agricultura familiar, para mitigar os impactos socioeconômicos da Covid-19; altera as Leis nºs 13.340, de 28 de setembro de 2016, e 13.606, de 9 de janeiro de 2018; e ...</t>
+          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, para determinar que a Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais priorize à mulher chefe de família o acesso às linhas de crédito e aos mecanismos para comercialização dos alimentos produzidos.</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Pedro Uczai;Erika Kokay;Jorge Solla;Carlos Veras;Maria do Rosário;Valmir Assunção;Marcon;Rogério Correia;Leo de Brito;José Guimarães;Marília Arraes;Célio Moura;José Ricardo;Beto Faro;Padre João;João Daniel;Benedita da Silva;Afonso Florence;Bohn Gass;Alencar Santana Braga;Airton Faleiro;Rubens Otoni;Rejane Dias;Paulo Teixeira;Vander Loubet;Patrus Ananias;Enio Verri;Natália Bonavides;Henrique Fontana;Leonardo Monteiro;Professora Rosa Neide;Gleisi Hoffmann;Vicentinho;José Airton Félix Cirilo;Alexan e Outros.</t>
+          <t>Rejane Dias</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>SC;DF;BA;PE;RS;BA;RS;MG;AC;CE;PE;TO;AM;PA;MG;SE;RJ;BA;RS;SP;PA;GO;PI;SP;MS;MG;PR;RN;RS;MG;MT;PR;SP;CE;SP;BA;PB;PI;SP;ES;RS;AL;MA;BA;MG;SP;SP;PR;BA;MG</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2273510</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2334040</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -13360,11 +13344,11 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Aprovado</t>
+          <t>Não Aprovado</t>
         </is>
       </c>
     </row>
@@ -13374,32 +13358,32 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>PL 902/2021</t>
+          <t>PL 2413/2022</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Dispõe sobre os empreendimentos de turismo rural da agricultura familiar.</t>
+          <t>Cria o Programa Nacional de Agricultura Sustentável e dá outras providências.</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Aline Sleutjes</t>
+          <t>Rubens Pereira Júnior</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>PSL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2273861</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2334931</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -13408,7 +13392,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J271" t="inlineStr">
         <is>
@@ -13422,32 +13406,32 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>PL 2975/2021</t>
+          <t>PL 3067/2022</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Institui o Dia Nacional da Agricultura Irrigada.</t>
+          <t>Institui o Programa de Energia Renovável para Agricultores Familiares e Consumidores de Baixa Renda e dá outras providências.</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Zé Vitor</t>
+          <t>João Daniel</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2296359</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2345237</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -13456,7 +13440,7 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
@@ -13470,32 +13454,32 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>PL 2296/2021</t>
+          <t>PL 5574/2019</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Institui o Dia Nacional da Agricultura Irrigada.</t>
+          <t>Altera a Lei nº 9.503, de 23 de setembro de 1997, que institui o Código de Trânsito Brasileiro, para incluir representante do Ministério da Agricultura, Pecuária e Abastecimento na composição do Conselho Nacional de Trânsito - Contran.</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Professora Dorinha Seabra Rezende</t>
+          <t>Arnaldo Jardim</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>CIDADANIA</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2288020</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2225817</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -13504,7 +13488,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -13518,32 +13502,32 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>PL 1485/2021</t>
+          <t>PL 6028/2019</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.343 de 23 de agosto de 2006, para autorizar a Empresa Brasileira de Pesquisa Agropecuária (Embrapa), vinculada ao Ministério da Agricultura, Pecuária e Abastecimento, e as universidades federais a implementarem o plantio, a cultura e a colheita, do vegetal denominado Cannabis sativa, exclusivamente para fins medicinais ou científicos.</t>
+          <t>Estabelece a obrigatoriedade do uso de cães farejadores pelo Ministério da Agricultura, Pecuária e Abastecimento no combate ao ingresso de produtos de interesse agropecuário de uso proibido, restrito, controlado ou que ofereça risco agropecuário, e dá outras providências.</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Valmir Assunção</t>
+          <t>Neri Geller</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2278709</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2229763</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -13552,7 +13536,7 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
@@ -13566,32 +13550,32 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PL 312/2021</t>
+          <t>PL 3901/2019</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Institui linha de crédito destinada ao financiamento da primeira aquisição de terras por agricultor familiar.</t>
+          <t>Altera a Lei nº 10.865, de 30 de abril de 2004, para reduzir a zero as alíquotas do PIS/PASEP e da COFINS incidentes sobre a receita bruta decorrente da venda no mercado interno de máquinas e equipamentos a agricultor familiar e empreendedor familiar rural.</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Marcelo Brum</t>
+          <t>Fausto Pinato</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>PSL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2269705</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2210928</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -13600,7 +13584,7 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
@@ -13614,32 +13598,32 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PL 952/2021</t>
+          <t>PL 6132/2019</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 12.188, de 11 de janeiro de 2010, que ?Institui a Política Nacional de Assistência Técnica e Extensão Rural para a Agricultura Familiar e Reforma Agrária - PNATER e o Programa Nacional e Assistência Técnica e Extensão Rural na Agricultura Familiar e na Reforma Agrária - PRONATER, altera a Lei nº 8.666, de 21 de junho de 1993 e dá outras providências?.</t>
+          <t>Estabelece isenção do Imposto sobre Produtos Industrializados - IPI e do Imposto sobre Operações Financeiras - IOF nas aquisições e financiamentos de motocicletas realizados por agricultor inscrito no Programa Nacional de Fortalecimento da Agricultura Familiar (Pronaf).</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Coronel Chrisóstomo</t>
+          <t>José Guimarães</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>PSL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2274252</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2230504</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -13648,7 +13632,7 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
@@ -13662,32 +13646,32 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>PL 944/2021</t>
+          <t>PL 2804/2019</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Suspende os pagamentos das parcelas dos empréstimos dos agricultores familiares do PRONAF Junto às Instituições Financeiras até o final do estado de calamidade pública decorrente da Pandemia do Covid 19 no país</t>
+          <t>Dispõe sobre o percentual mínimo do valor repassado pelo Fundo Nacional de Desenvolvimento da Educação para o Programa Nacional de Alimentação Escolar a ser investido na compra direta de produtos de agricultura familiar e do empreendedor familiar rural.</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>José Airton Félix Cirilo</t>
+          <t>Gustinho Ribeiro</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>SOLIDARI</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2274130</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2201754</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -13696,7 +13680,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -13710,32 +13694,32 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>PL 4486/2021</t>
+          <t>PL 6095/2019</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Cria o Programa Água Boa, medida de combate à seca, destinado à implantação de soluções urbanas e rurais individuais, locais, comunitárias, de agricultura familiar e comunidades quilombolas remanescentes, de captação de águas do subsolo e do lençol freático e sua dessalinização para consumo humano e animal.</t>
+          <t>Altera a Lei nº 11.116, de 18 de maio de 2005, para ampliar o número de agricultores familiares sujeitos à redução de alíquotas para incidência da Contribuição para o PIS/Pasep e Contribuição Social para o Financiamento da Seguridade Social - Cofins.</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Walter Alves</t>
+          <t>Jerônimo Goergen</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>RN</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2312898</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2230151</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -13744,7 +13728,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
@@ -13758,32 +13742,32 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>PL 4074/2021</t>
+          <t>PL 354/2019</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Dispõe sobre a sobre a reserva de áreas para implementação de sistemas produtivos de agricultura urbana ou periurbana no âmbito de programas habitacionais públicos federais ou financiados com recursos públicos federais.</t>
+          <t>Altera a redação do artigo 14 da Lei nº 11.947, de 16 de junho de 2009, para incluir a prioridade de aquisição de gêneros alimentícios da agricultura familiar aos produtores rurais familiares.</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Célio Moura ;Nilto Tatto ;João Daniel ;Marília Arraes ;Beto Faro ;Bohn Gass ;Patrus Ananias ;Leonardo Monteiro ;Rogério Correia ;José Ricardo ;Enio Verri ;Rejane Dias ;Marcon ;Paulo Guedes ;Paulão ;Frei Anastacio Ribeiro ;Valmir Assunção ;Professora Rosa Neide ;Alexandre Padilha ;José Guimarães ;Carlos Veras ;Leo de Brito;Airton Faleiro ;Helder Salomão ;Erika Kokay</t>
+          <t>Tereza Cristina</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>TO;SP;SE;PE;PA;RS;MG;MG;MG;AM;PR;PI;RS;MG;AL;PB;BA;MT;SP;CE;PE;AC;PA;ES;DF</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2307615</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190933</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -13792,7 +13776,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -13806,32 +13790,32 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>PL 2160/2021</t>
+          <t>PL 5525/2019</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Dá nova redação ao Parágrafo único do art. 6º e acrescenta § 3º no art. 14º da Lei 11.947, de 16 de junho de 2009, de forma a criar índice de reajuste aos repasses de valores para a alimentação escolar aos estados, Distrito Federal e municípios e cria índice de reajuste de teto para a comercialização de alimentos da agricultura familiar para o Programa Nacional de Alimentação Escolar (PNAE).</t>
+          <t>Dispõe sobre a concessão de bolsas de estudos para filhos de agricultores familiares vinculados ao Programa Nacional de Educação na Reforma Agrária - PRONERA e dá outras providências.</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Heitor Schuch</t>
+          <t>Frei Anastacio Ribeiro</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2286580</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2225331</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -13840,7 +13824,7 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
@@ -13854,32 +13838,32 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>PL 349/2021</t>
+          <t>PL 4451/2019</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Cria o Selo de Inclusão Tecnológica no Campo e dá incentivo tributário a pessoas jurídicas que doem recursos para a contratação de serviços de assistência técnica e extensão rural para agricultores familiares situados abaixo da linha de pobreza.</t>
+          <t>"Dá nova redação ao caput do artigo 3º da Lei nº 11.326, de 24 de julho de 2006, que estabelece as diretrizes para a formulação da Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais".</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Zé Silva</t>
+          <t>Marreca Filho</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>SOLIDARI</t>
+          <t>PATRIOTA</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2269821</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2214943</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -13888,7 +13872,7 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
@@ -13902,32 +13886,32 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>PL 2977/2021</t>
+          <t>PL 1118/2019</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Institui o Dia Nacional da Agricultura Irrigada.</t>
+          <t>Obriga hipermercados, supermercados e estabelecimentos similares a disporem de local específico para a venda de produtos provenientes da agricultura familiar.</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Professora Dorinha Seabra Rezende</t>
+          <t>Marreca Filho</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>PATRI</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2296383</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193081</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -13936,7 +13920,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J282" t="inlineStr">
         <is>
@@ -13950,32 +13934,32 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>PL 3265/2021</t>
+          <t>PL 471/2019</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Esta lei dispõe sobre a inclusão de alimentos da agricultura familiar, preferencialmente de produção com base agroecológica ou orgânica, na alimentação da rede hospitalar, estabelece critérios para esta inclusão e dá outras providências.</t>
+          <t>Altera os artigos 429 e 430 da Consolidação das Leis do Trabalho - CLT, a fim de dispor sobre a contratação de aprendizes pelos empreendimentos da agricultura familiar.</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Alexandre Frota</t>
+          <t>Célio Moura</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>PSDB</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2299900</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2191179</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -13984,7 +13968,7 @@
         </is>
       </c>
       <c r="I283" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
@@ -13998,32 +13982,32 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>PL 929/2021</t>
+          <t>PL 5856/2019</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Cria o Serviço Nacional de Apoio ao Agricultor Familiar - SENAF</t>
+          <t>Altera o art. 14 da Lei nº 11.947, de 16 de junho de 2009, que trata da aquisição direta da agricultura familiar de gêneros alimentícios, no âmbito do Programa Nacional de Alimentação Escolar.</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>José Medeiros</t>
+          <t>Helio Lopes</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>PODE</t>
+          <t>PSL</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2274018</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2228312</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -14032,7 +14016,7 @@
         </is>
       </c>
       <c r="I284" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J284" t="inlineStr">
         <is>
@@ -14046,22 +14030,22 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>PL 2291/2022</t>
+          <t>PL 1327/2019</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, para determinar que a Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais priorize à mulher chefe de família o acesso às linhas de crédito e aos mecanismos para comercialização dos alimentos produzidos.</t>
+          <t>Altera o art. 14 da Lei nº 11.947, de 16 de junho de 2009, que estabelece o percentual mínimo de aquisição de gêneros alimentícios da agricultura familiar e do empreendedor familiar rural ou de suas organizações.</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Rejane Dias</t>
+          <t>Zé Carlos</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -14071,7 +14055,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2334040</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193563</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -14080,7 +14064,7 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J285" t="inlineStr">
         <is>
@@ -14094,17 +14078,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>PL 2413/2022</t>
+          <t>PL 6267/2019</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Cria o Programa Nacional de Agricultura Sustentável e dá outras providências.</t>
+          <t>Altera os artigos 429 e 430 da Consolidação das Leis do Trabalho (CLT), a fim de dispor sobre a contratação de aprendizes pelos empreendimentos de agricultura familiar.</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Rubens Pereira Júnior</t>
+          <t>Marreca Filho</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -14114,12 +14098,12 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PATRIOTA</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2334931</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2231730</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -14128,7 +14112,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -14142,32 +14126,32 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>PL 426/2022</t>
+          <t>PL 5000/2019</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Altera a Lei no 11.326, de 24 de julho de 2006, para dispor sobre a assistência técnica e material ao agricultor familiar.</t>
+          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, para incluir entre os instrumentos para implementação da Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais, a obrigatoriedade aos órgãos e entidades da Administração Pública federal direta, autárquica e fundacional, de destinar percentual mínimo do total de recursos reservados à aquisição de gêneros alimentícios, para produtos de agricultores familiares, de suas cooperativas e associações.</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Marreca Filho</t>
+          <t>Neri Geller</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>PATRIOTA</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2316673</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2219856</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -14176,7 +14160,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
@@ -14190,22 +14174,22 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>PL 2953/2022</t>
+          <t>PL 1123/2019</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Institui o Programa de Energia Renovável para Agricultura Familiar e para Consumidores de Baixa Renda - Programa Luz do Sol e dá outras providências.</t>
+          <t>Acrescenta dispositivos à Lei nº 8.171, de 17 de janeiro de 1991, para conceder estímulos aos proprietários rurais que desenvolvam a agricultura orgânica e outras atividades de preservação ambiental.</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Carlos Veras</t>
+          <t>Rubens Otoni</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -14215,7 +14199,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2341800</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193097</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -14224,7 +14208,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -14238,32 +14222,32 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PL 121/2022</t>
+          <t>PL 1116/2019</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.346, de 15 de setembro de 2006, para prever percentuais mínimos de produtos da agricultura familiar nas cestas básicas que forem distribuídas no âmbito do Sistema Nacional de Segurança Alimentar e Nutricional - Sisan.</t>
+          <t>Altera o art. 24 da Lei nº 8.666, de 21 de junho de 1993, para permitir aos estabelecimentos penais a aquisição de gêneros alimentícios diretamente da agricultura familiar.</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Heitor Schuch</t>
+          <t>Marreca Filho</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>PATRI</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2313981</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193078</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -14272,7 +14256,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
@@ -14286,32 +14270,32 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>PL 2979/2022</t>
+          <t>PL 149/2019</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 14.118, de 12 de janeiro de 2021, para definir os agricultores atendidos pelo Programa Casa Verde e Amarela.</t>
+          <t>Institui a Política Nacional de Incentivo à Agricultura de Precisão visando maior eficiência na aplicação de recursos e insumos de produção, de forma a diminuir o desperdício, reduzir os custos de produção, aumentar a produtividade, a lucratividade e a garantir a sustentabilidade ambiental.</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Carlos Henrique Gaguim</t>
+          <t>Heitor Schuch</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>UNIÃO</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2342791</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190623</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -14320,11 +14304,11 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Não Aprovado</t>
+          <t>Aprovado</t>
         </is>
       </c>
     </row>
@@ -14334,32 +14318,32 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>PL 3095/2022</t>
+          <t>PL 1831/2019</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 6.894, de 16 de dezembro de 1980, que dispõe sobre a inspeção e a fiscalização da produção e do comércio de fertilizantes, corretivos, inoculantes, estimulantes ou biofertilizantes, remineralizadores e substratos para plantas, destinados à agricultura, e dá outras providências.</t>
+          <t>Altera a redação da Lei nº 11.326, de 24 de julho de 2006, para estabelecer desoneração tributária em benefício da Agricultura Familiar e Empreendimentos Familiares Rurais.</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Beto Rosado</t>
+          <t>Severino Pessoa</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>RN</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>PRB</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2345330</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2195806</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -14368,7 +14352,7 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J291" t="inlineStr">
         <is>
@@ -14382,32 +14366,32 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>PL 1003/2022</t>
+          <t>PL 6288/2019</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Dispõe sobre o Programa Nacional de Fortalecimento da Agricultura Familiar - PRONAF, e dá outras providências.</t>
+          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, para dispor sobre a isenção de contribuições previdenciárias incidentes sobre as vendas de produtos da agricultura familiar.</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Airton Faleiro;João Daniel;Bohn Gass;Célio Moura;Padre João;Professora Rosa Neide;Paulo Pimenta;Paulo Teixeira;Leonardo Monteiro;Leo de Brito;Vilson da Fetaemg;Rubens Pereira Júnior;Afonso Florence;José Guimarães;Alencar Santana;Rejane Dias;Henrique Fontana;Rogério Correia;Helder Salomão;Alice Portugal;Gleisi Hoffmann;Daniel Almeida;Zé Carlos;Flávio Nogueira;Natália Bonavides;Pedro Uczai;José Ricardo;Valmir Assunção;Reginaldo Lopes;Frei Anastacio Ribeiro;Vander Loubet;Luizianne Lins;Vicentinho;W e Outros.</t>
+          <t>Marreca Filho</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>PA;SE;RS;TO;MG;MT;RS;SP;MG;AC;MG;MA;BA;CE;SP;PI;RS;MG;ES;BA;PR;BA;MA;PI;RN;SC;AM;BA;MG;PB;MS;CE;SP;BA;PI;PE;PA;BA;SP;RS;MA</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PSB;PT;PT;PT;PT;PT;PT;PT;PT;PCdoB;PT;PCdoB;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PSB</t>
+          <t>PATRIOTA</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2320332</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2231929</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -14416,7 +14400,7 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
@@ -14430,32 +14414,32 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>PL 1306/2022</t>
+          <t>PL 355/2019</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Dispõe sobre medidas de amparo à agricultura familiar, para estimular o aumento da produção e da geração de renda.</t>
+          <t>Institui a Política Nacional de Incentivo à Agricultura e Pecuária de Precisão.</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Marreca Filho</t>
+          <t>Tereza Cristina</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>PATRIOTA</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2323871</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190934</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -14464,7 +14448,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
@@ -14478,32 +14462,32 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PL 19/2022</t>
+          <t>PL 361/2019</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Dispõe sobre medidas emergenciais de amparo aos agricultores familiares para mitigar os impactos socioeconômicos da seca e das enchentes que incidem sobre o país desde o ano de 2021, e dá outras providências.</t>
+          <t>Institui a Política Nacional de Incentivo à Agricultura de Precisão.</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Pedro Uczai ;Marcon ;Bohn Gass ;Célio Moura ;Airton Faleiro ;Valmir Assunção ;Maria do Rosário ;Nilto Tatto ;Enio Verri ;Carlos Veras ;Waldenor Pereira ;Professora Rosa Neide ;Paulão ;José Guimarães ;Gleisi Hoffmann ;Paulo Teixeira ;Rogério Correia ;Alencar Santana Braga ;Alexandre Padilha ;Patrus Ananias ;Helder Salomão ;Leo de Brito;Merlong Solano ;Benedita da Silva ;Arlindo Chinaglia ;Jorge Solla ;Rubens Otoni ;Carlos Zarattini ;Camilo Capiberibe ;Perpétua Almeida ;Professora Marcivania ;Luiz e Outros.</t>
+          <t>Alceu Moreira</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SC;RS;RS;TO;PA;BA;RS;SP;PR;PE;BA;MT;AL;CE;PR;SP;MG;SP;SP;MG;ES;AC;PI;RJ;SP;BA;GO;SP;AP;AC;AP;CE;SE;PB;MS;PI;MG;SP;RN;PE;MA;SP;DF;BA;PA;RS;BA;MG;AM;PE;RS;SP;RS;MA;BA;MG;CE;BA;PA;SP;MG;PE;MG;SP;SP;RJ</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PSB;PCdoB;PCdoB;PT;PT;PT;PT;PT;PT;PT;PT;PDT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PSB;PCdoB;PT;PCdoB;PCdoB;PSB;PT;PT;PSOL;PSOL;PT;PDT;PT;PSOL;PSOL;PSOL</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2313797</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2190983</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -14512,7 +14496,7 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
@@ -14526,32 +14510,32 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>PL 3045/2019</t>
+          <t>PL 6414/2019</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Dispõe sobre o exercício de atividades agrossilvipastoris em terras indígenas e dá outras providências.</t>
+          <t>Acrescenta artigo à Lei nº 11.326, de 24 de julho de 2006, para a criação do Observatório da Agricultura Familiar e dá outras providências.</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Nelson Barbudo</t>
+          <t>Frei Anastacio Ribeiro</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>PSL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2204216</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2233806</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -14574,32 +14558,32 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PL 4447/2019</t>
+          <t>PL 6263/2019</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Dispõe sobre o uso sustentável do solo e dos recursos naturais em terras indígenas.</t>
+          <t>Altera a Lei nº 10.831, de 23 de dezembro de 2003, que "dispõe sobre a agricultura orgânica e dá outras providências", para disciplinar a rotulagem de produtos orgânicos e integrais.</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Silas Câmara</t>
+          <t>Felipe Carreras</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>PRB</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2214933</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2231693</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -14622,32 +14606,32 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PL 5014/2020</t>
+          <t>PL 2614/2019</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Proíbe a utilização agropecuária ou urbana das terras com cobertura vegetal nativa ilegalmente desmatadas ou queimadas, pelo prazo de 20 anos.</t>
+          <t>Dispõe sobre a responsabilidade civil do comerciante, fabricante, produtor, nacional ou estrangeiro, e importador de produtos agrotóxicos por danos causados a trabalhadores, agricultores, transportadores, consumidores ou pessoas que comprovadamente hajam entrado em contato com o produto por inalação, manipulação, ingestão ou qualquer outra forma.</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Nilto Tatto;Alencar Santana Braga</t>
+          <t>João Daniel</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SP;SP</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>PT;PT</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2264636</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2200103</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -14656,7 +14640,7 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
@@ -14670,32 +14654,32 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PL 1426/2020</t>
+          <t>PL 1522/2019</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 10.304, de 5 de novembro de 2001, que transfere ao domínio dos Estados de Roraima e do Amapá terras pertencentes à União, e as Leis nº 12.651, de 25 de maio de 2012 ? Código Florestal, e 6.634, de 2 de maio de 1979; desafeta, para transferência ao Estado de Roraima, parte da área da Floresta Nacional de Roraima.</t>
+          <t>Dispõe sobre os empreendimentos de turismo rural da agricultura familiar.</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Hiran Gonçalves;Ottaci Nascimento;Haroldo Cathedral;Nicoletti</t>
+          <t>Pastor Gildenemyr</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>RR;RR;RR;RR</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>PP;SOLIDARI;PSD;PSL</t>
+          <t>PMN</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2242709</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2194251</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -14704,7 +14688,7 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
@@ -14718,22 +14702,22 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>PL 810/2020</t>
+          <t>PL 4920/2019</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 8.629, de 25 de fevereiro de 1993, para que se estimule e facilite a titulação de terras a mulheres trabalhadoras rurais no âmbito da reforma agrária.</t>
+          <t>Obriga hipermercados, supermercados e estabelecimentos similares, cuja atividade preponderante seja a venda de alimentos, a ofertar aos consumidores um percentual mínimo de gêneros alimentícios de origem vegetal produzidos por agricultores familiares, empreendedores familiares rurais e suas organizações.</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>José Guimarães</t>
+          <t>Frei Anastacio Ribeiro</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -14743,7 +14727,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2241668</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2219262</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -14752,7 +14736,7 @@
         </is>
       </c>
       <c r="I299" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
@@ -14766,24 +14750,32 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>PL 191/2020</t>
+          <t>PL 2295/2019</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Regulamenta o § 1º do art. 176 e o § 3º do art. 231 da Constituição para estabelecer as condições específicas para a realização da pesquisa e da lavra de recursos minerais e hidrocarbonetos e para o aproveitamento de recursos hídricos para geração de energia elétrica em terras indígenas e institui a indenização pela restrição do usufruto de terras ...</t>
+          <t>Altera a Lei nº 10.048, de 8 de novembro de 2000, para estabelecer a prioridade no Sistema Único de Saúde para agricultor familiar que more distante do local de atendimento.</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Poder Executivo</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
+          <t>Zé Vitor</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2236765</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2198164</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -14792,7 +14784,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
@@ -14806,32 +14798,32 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>PL 2633/2020</t>
+          <t>PL 6501/2019</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Altera a Lei n° 11.952, de 25 de junho de 2009, que dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União; a Lei n° 8.666, de 21 de junho de 1993, que institui normas para licitações e contratos da administração pública; a Lei nº 6.015, de 31 de dezembro de 1973, que dispõe sobre os registros públicos; a fim de ampliar o alcance da regularização fundiária e dar outras providências. NOVA EMENTA: Altera as Leis nºs 11.952, de 25 de junho de 2009, 14.1 ...</t>
+          <t>Acrescenta o § 4º ao art. 25 da Lei nº 10.438, de 26 de abril de 2002, para conceder ininterruptamente desconto tarifário concernente à energia elétrica consumida nas atividades de irrigação da agricultura familiar.</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Zé Silva</t>
+          <t>Marreca Filho</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>SOLIDARI</t>
+          <t>PATRIOTA</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2252589</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2234584</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -14840,7 +14832,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -14854,32 +14846,32 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>PL 2550/2021</t>
+          <t>PL 5826/2019</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.952, de 25 de junho de 2009, que "Dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União, no âmbito da Amazônia Legal; altera as Leis nos 8.666, de 21 de junho de 1993, e 6.015, de 31 de dezembro de 1973; e dá outras providências", para dispor sobre a possibilidade de emissão da Certidão de Reconhecimento de Ocupação.</t>
+          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, que estabelece as diretrizes para a formulação da Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais.</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Jaqueline Cassol</t>
+          <t>Carlos Henrique Gaguim</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2291073</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2228136</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -14888,7 +14880,7 @@
         </is>
       </c>
       <c r="I302" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -14902,32 +14894,32 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PL 3280/2021</t>
+          <t>PL 6276/2019</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Dispõe sobre a regularização documental de imóveis das ocupações incidentes em terras situadas em áreas rurais de domínio particular, fora da Amazônia Legal, e dá outras providências.</t>
+          <t>Altera a Lei nº 13.340, de 28 de setembro de 2016, para conceder rebate para liquidação de operações de crédito rural do Programa Nacional de Fortalecimento da Agricultura Familiar e dá outras providências.</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Heitor Schuch</t>
+          <t>Heitor Freire</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>PSL</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2300019</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2231836</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -14936,7 +14928,7 @@
         </is>
       </c>
       <c r="I303" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
@@ -14950,32 +14942,32 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>PL 3915/2021</t>
+          <t>PL 6475/2019</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.952, de 25 de junho de 2009, que ?Dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União, no âmbito da Amazônia Legal; altera as Leis nº 8.666, de 21 de junho de 1993, e 6.015, de 31 de dezembro de 1973; e dá outras providências?.</t>
+          <t>Altera a Lei nº 11.343 de 23 de agosto de 2006, para estabelecer percentual mínimo destinado aos agricultores familiares ou empreendedores familiares rurais que atendam ao disposto no art. 3º da Lei nº 11.326, de 24 de julho de 2006, em caso de autorização para o plantio, a cultura e a colheita, dos vegetais e substratos dos quais possam ser extraídas ou produzidas drogas</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Zé Vitor</t>
+          <t>João Daniel</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2305948</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2234382</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -14984,7 +14976,7 @@
         </is>
       </c>
       <c r="I304" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -14998,32 +14990,32 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PL 1730/2021</t>
+          <t>PL 1124/2019</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Altera a Lei nº 11.952, de 25 de junho de 2009, que ?dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União?; Lei nº 6.015, de 31 de dezembro de 1973, que ?dispõe sobre os registros públicos?; Lei nº 10.304, de 5 de novembro de 2001, que ?transfere ao domínio dos Estados de Roraima e do Amapá terras pertencentes à União?; Lei nº 13.240, de 30 de dezembro de 2015, que ?dispõe sobre a administração, a alienação, a transferência de gestão de imóveis da  ...</t>
+          <t>Altera as Leis nº 10.696, de 2 de julho de 2003, e nº 8.427, de 27 de maio de 1992, para incluir produtos extrativos no Programa de Aquisição de Alimentos e para autorizar subvenção de preços em apoio à agricultura familiar.</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Lucio Mosquini</t>
+          <t>Rubens Otoni</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2281087</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2193098</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -15032,7 +15024,7 @@
         </is>
       </c>
       <c r="I305" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
@@ -15046,32 +15038,32 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>PL 312/2021</t>
+          <t>PL 3954/2019</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Institui linha de crédito destinada ao financiamento da primeira aquisição de terras por agricultor familiar.</t>
+          <t>Altera a Lei nº 12.512, de 14 de outubro de 2011, para estabelecer, no âmbito da Administração Pública Federal, o percentual mínimo destinado à aquisição de gêneros alimentícios de agricultores familiares e suas organizações, empreendedores familiares rurais e demais beneficiários da Lei nº 11.326, de 24 de julho de 2006.</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Marcelo Brum</t>
+          <t>Julio Cesar Ribeiro</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>PSL</t>
+          <t>PRB</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2269705</t>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2211478</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -15080,7 +15072,7 @@
         </is>
       </c>
       <c r="I306" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
@@ -15094,43 +15086,4211 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
+          <t>PL 3547/2019</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 11.947, de 16 de junho de 2009, para incluir as cooperativas formadas por agricultores familiares na ordem de prioridades para o fornecimento de alimentos no âmbito do Programa Nacional de Alimentação Escolar - Pnae, com recursos financeiros do Fundo Nacional de Desenvolvimento da Educação - FNDE.</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Filipe Barros</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2208118</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>PL 3821/2019</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Acrescenta dispositivo ao art. 24 da Lei nº 8.666, de 21 de junho de 1993, para permitir aos estabelecimentos penais a aquisição direta de gêneros alimentícios da agricultura familiar.</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Rubens Otoni</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2210165</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>PL 4538/2019</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Institui a Política Nacional de Incentivo à Agricultura de Precisão.</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Marreca Filho</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2215691</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>PL 2918/2019</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 12.188, de 11 de janeiro de 2010, para possibilitar o aproveitamento das entidades executoras do Programa Nacional de Assistência Técnica e Extensão Rural na Agricultura Familiar e na Reforma Agrária - Pronater, para auxílio no processo de inscrição em cadastro para programas sociais do Governo Federal.</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Pastor Gildenemyr</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2203522</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>PL 3663/2020</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 8.080, de 19 de setembro de 1990, para estabelecer a prioridade de compra de alimentos da agricultura familiar e da pesca artesanal pelo Sistema Único de Saúde.</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Professora Dayane Pimentel</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2256875</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>PL 4879/2020</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Dispõe sobre os empreendimentos de turismo rural da agricultura familiar.</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Geninho Zuliani</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2264249</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>PL 900/2020</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Dispõe sobre a suspensão da inscrição dos débitos oriundos dos financiamentos da Agricultura Familiar em dívida ativa.</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Rubens Otoni</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2241804</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>PL 4371/2020</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Altera dispositivos da Lei nº 12.188, de 11 de janeiro de 2010, que institui a Política Nacional de Assistência Técnica e Extensão Rural para a Agricultura Familiar e Reforma Agrária - PNATER e o Programa Nacional e Assistência Técnica e Extensão Rural na Agricultura Familiar e na Reforma Agrária - PRONATER, altera a Lei nº 8.666, de 21 de junho de 1993 e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Zé Silva</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>SOLIDARI</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2261120</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>PL 787/2020</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Dispõe sobre o Auxílio Emergencial Financeiro destinado a agricultores familiares e empreendedores familiares rurais em situação de isolamento ou quarentena, em razão da pandemia do COVID-19.</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Natália Bonavides</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2241630</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>PL 465/2020</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Altera o art. 14 da Lei nº 11.947, de 16 de junho de 2009, para elevar o percentual mínimo de aquisições de gêneros alimentícios da agricultura familiar no âmbito do PNAE com recursos repassados pelo FNDE.</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Gil Cutrim</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2238198</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>PL 2439/2020</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Institui desconto nas tarifas de energia elétrica das unidades consumidoras da classe rural cujo titular seja enquadrado como agricultor familiar, mediante alteração da Lei nº 10.438, de 26 de abril de 2002.</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Vicentinho</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2251876</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>PL 2853/2020</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Institui linha emergencial de crédito no âmbito do Programa Nacional de Fortalecimento da Agricultura Familiar (Pronaf).</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Zé Neto ;Nilto Tatto ;João Daniel ;Pedro Uczai ;Marcon ;Reginaldo Lopes ;Padre João ;Patrus Ananias ;Alexandre Padilha ;Jorge Solla ;Paulo Teixeira ;Valmir Assunção ;Rejane Dias ;Erika Kokay ;Enio Verri ;Marília Arraes ;Rogério Correia ;Célio Moura ;Beto Faro ;Joseildo Ramos ;Airton Faleiro ;Waldenor Pereira ;Vicentinho ;Vander Loubet ;Luizianne Lins ;Margarida Salomão ;Natália Bonavides ;Afonso Florence ;Maria do Rosário ;Rubens Otoni ;José Ricardo ;Frei Anastacio Ribeiro ;Carlos Veras ;Profess e Outros.</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>BA;SP;SE;SC;RS;MG;MG;MG;SP;BA;SP;BA;PI;DF;PR;PE;MG;TO;PA;BA;PA;BA;SP;MS;CE;MG;RN;BA;RS;GO;AM;PB;PE;MT;PR;CE;MG;MA;RS;SP;CE;SP;MG;RS</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PSB;PSB</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2253607</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>PL 3463/2020</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Cria o Plano Emergencial de Compra Direta da Agricultura Familiar enquanto durar o período de emergencia reconhecido pelo Decreto Legislativo n. 6, de 20 de março de 2020.</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Reginaldo Lopes ;Bira do Pindaré</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>MG;MA</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>PT;PSB</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2255923</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>PL 344/2020</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 9.433, de 8 de janeiro de 1997, para isentar de cobrança pelo uso de recursos hídricos os agricultores familiares e empreendedores familiares rurais beneficiários da Lei nº 11.326, de 24 de julho de 2006.</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Helder Salomão</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2237669</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>PL 2235/2020</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 10.420, de 10 de abril de 2002, que cria o Fundo Garantia-Safra e institui o Benefício Garantia-Safra, destinado a agricultores familiares vitimados pelo fenômeno da estiagem ou excesso hídrico, nas regiões que especifica, para autorizar, em caráter excepcional, o recebimento do benefício em caso de decretação de situação de emergência ou estado de calamidade pública em razão de epidemia ou de pandemia.</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Carlos Veras;Patrus Ananias;Bira do Pindaré</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>PE;MG;MA</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>PT;PT;PSB</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2250751</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>PL 584/2020</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Altera a redação das Leis nº 10.336, de 2001, 10.485, de 2002, e 10.925, de 2004, para desonerar da Contribuição para o PIS/Pasep, da Cofins e da CIDE-Combustíveis o óleo diesel ou biodiesel utilizados na produção e no transporte de produtos agropecuários produzidos pela agricultura familiar.</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Marcelo Brum</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2238632</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>PL 735/2020</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Fica criado o abono destinado a feirantes e agricultores familiares que se encontram em isolamento ou quarentena em razão da pandemia do COVID-19, consoante a Lei 13.979, de 6 de fevereiro de 2020, e que apresentam-se impossibilitados de comercializar sua produção também por medidas determinadas pelos executivos municipais. NOVA EMENTA: Dispõe sobre medidas emergenciais de amparo aos agricultores familiares do Brasil para mitigar os impactos socioeconômicos da Covid-19; altera as Leis nºs 13.340 ...</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Enio Verri;Célio Moura;José Guimarães;Helder Salomão;Pedro Uczai;Professora Rosa Neide;Waldenor Pereira;Erika Kokay;Maria do Rosário;Natália Bonavides;Marília Arraes;João Daniel;Carlos Veras;Valmir Assunção;Airton Faleiro;Vicentinho;Zeca Dirceu;Jorge Solla;Afonso Florence;Leonardo Monteiro;Beto Faro;Arlindo Chinaglia;Paulo Teixeira;Zé Carlos;Alexandre Padilha;Luizianne Lins;Marcon;Rogério Correia;Rejane Dias;Rubens Otoni;José Ricardo;José Airton Félix Cirilo;Nilto Tatto;Bohn Gass;Patrus Ananias; e Outros.</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>PR;TO;CE;ES;SC;MT;BA;DF;RS;RN;PE;SE;PE;BA;PA;SP;PR;BA;BA;MG;PA;SP;SP;MA;SP;CE;RS;MG;PI;GO;AM;CE;SP;RS;MG;SP;PB;MG;MG;AL;BA;MS;RS;BA;PR;SP;MG;MG</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2239605</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>PL 486/2020</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, para incluir a redução das desigualdades sociais e regionais entre os princípios a serem observados pela Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais e determina ao poder público tratamento especial quanto a linhas de crédito rural e serviços de assistência técnica e extensão rural destinados a agricultores familiares e empreendimentos familiares rurais situados na Região do Marajó.</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Senado Federal - Zequinha Marinho</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2317628</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>PL 2851/2020</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Cria o Programa de Fidelidade para Aquisição de Alimentos Orgânicos da Agricultura Familiar e da Reforma Agrária - PFA, com a finalidade de promover incentivo aos pequenos agricultores e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Gervásio Maia;Vilson da Fetaemg;Heitor Schuch</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>PB;MG;RS</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>PSB;PSB;PSB</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2253603</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>PL 1895/2020</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Institui desconto nas tarifas de energia elétrica das unidades consumidoras da classe rural cujo titular seja enquadrado como agricultor familiar, mediante alteração da Lei nº 10.438, de 26 de abril de 2002.</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Vicentinho</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2248249</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>PL 3170/2020</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Dispõe sobre o Plano Emergencial de Amparo à Agricultura Familiar durante a vigência do estado de calamidade pública ou, transcorrida sua vigência, enquanto durarem medidas de quarentena e restrições de atividades no contexto da pandemia do COVID-19 (Novo Coronavírus).</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Sâmia Bomfim;David Miranda;Fernanda Melchionna;Dagoberto Nogueira</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>SP;RJ;RS;MS</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>PSOL;PSOL;PSOL;PDT</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2254752</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>PL 886/2020</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Dispõe sobre medidas emergenciais de amparo aos agricultores familiares do Brasil para mitigar os impactos socioeconômicos da pandemia do COVID- 19, durante o período de vigor do estado de calamidade pública no país, e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Padre João;João Daniel;Célio Moura;Carlos Veras;Joseildo Ramos;Professora Rosa Neide;Valmir Assunção;Zé Carlos;Frei Anastacio Ribeiro;Pedro Uczai;Paulo Teixeira;Marcon;Alexandre Padilha</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>MG;SE;TO;PE;BA;MT;BA;MA;PB;SC;SP;RS;SP</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2241784</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>PL 3367/2020</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Autoriza o poder executivo a conceder auxílio financeiro temporário aos agricultores familiares e garante os recursos para compra da Agricultura Familiar através dos programas de Alimentação Escolar e PAA do produtor familiar no período de emergência reconhecido pelo Decreto Legislativo n. 6, de 20 de março de 2020.</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Reginaldo Lopes</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2255391</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>PL 3452/2020</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Altera o art. 14 da Lei nº 11.947, de 16 de junho de 2009, para aumentar o repasse de recursos do PNAE destinados à aquisição de gêneros alimentícios diretamente da agricultura familiar e do empreendedor familiar rural ou de suas organizações providências.</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Heitor Schuch</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2255817</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>PL 1673/2020</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Estende o auxílio emergencial, instituído pela Lei nº 13.982, de 2 de abril de 2020, para beneficiar cadastrados no Cadastro Nacional da Agricultura Familiar (CAF) e agricultores familiares de Municípios em estado de calamidade pública ou em situação de emergência devido a fatores climáticos em data que especifica.</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Heitor Schuch</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2244905</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>PL 1585/2020</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Estabelece benefício a empresas que adquirirem produtos da agricultura familiar e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Helder Salomão</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2243112</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>PL 1558/2020</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Dispõe sobre o incentivo emergencial para a aquisição de produtos da agricultura familiar, visando amenizar os prejuízos da pandemia do Covid-19 e do estado de calamidade pública, reconhecido pelo Decreto Legislativo n. 6, de 20 de março de 2020 e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Vilson da Fetaemg ;Danilo Cabral ;Rosana Valle</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>MG;PE;SP</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>PSB;PSB;PSB</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2243076</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>PL 1556/2020</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Dispõe sobre medidas emergenciais de assistência aos agricultores familiares, para amenizar os prejuízos da pandemia do Covid-19 e do estado de calamidade pública e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Vilson da Fetaemg ;Danilo Cabral ;Ted Conti ;Denis Bezerra</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>MG;PE;ES;CE</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>PSB;PSB;PSB;PSB</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2243074</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>PL 3102/2020</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Institui linha de crédito emergencial destinada ao refinanciamento de operações de custeio agropecuário e de investimento contratadas até 31 de dezembro de 2019, no âmbito do Programa Nacional de Fortalecimento da Agricultura Familiar (Pronaf) e do Programa Nacional de Apoio ao Médio Produtor Rural (Pronamp).</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Jerônimo Goergen</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2254432</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>PL 3157/2020</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 13.340, de 28 de setembro de 2016, para dispor sobre a anistia de parcelas de dívidas repactuadas de crédito rural da agricultura familiar com vencimento no ano de 2020.</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Júnior Mano</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2254726</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>PL 3220/2020</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Dispõe sobre medidas emergenciais do plano de safra para o apoio aos agricultores familiares prejudicados por problemas climáticos e pela epidemia da covid-19.</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Celso Maldaner</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2254880</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>PL 4550/2021</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Declara Patrono do Agricultor Familiar Brasileiro o Frei Egídio Maria Moscini.</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Senado Federal - Esperidião Amin</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2332688</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>PL 823/2021</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Dispõe sobre medidas emergenciais de amparo aos agricultores familiares do Brasil para mitigar os impactos socioeconômicos da Covid?19; altera as Leis nºs 13.340, de 28 de setembro de 2016, e 13.606, de 9 de janeiro de 2018; e dá outras providências (Lei Assis Carvalho II). NOVA EMENTA: Dispõe sobre medidas emergenciais de amparo à agricultura familiar, para mitigar os impactos socioeconômicos da Covid-19; altera as Leis nºs 13.340, de 28 de setembro de 2016, e 13.606, de 9 de janeiro de 2018; e ...</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Pedro Uczai;Erika Kokay;Jorge Solla;Carlos Veras;Maria do Rosário;Valmir Assunção;Marcon;Rogério Correia;Leo de Brito;José Guimarães;Marília Arraes;Célio Moura;José Ricardo;Beto Faro;Padre João;João Daniel;Benedita da Silva;Afonso Florence;Bohn Gass;Alencar Santana Braga;Airton Faleiro;Rubens Otoni;Rejane Dias;Paulo Teixeira;Vander Loubet;Patrus Ananias;Enio Verri;Natália Bonavides;Henrique Fontana;Leonardo Monteiro;Professora Rosa Neide;Gleisi Hoffmann;Vicentinho;José Airton Félix Cirilo;Alexan e Outros.</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>SC;DF;BA;PE;RS;BA;RS;MG;AC;CE;PE;TO;AM;PA;MG;SE;RJ;BA;RS;SP;PA;GO;PI;SP;MS;MG;PR;RN;RS;MG;MT;PR;SP;CE;SP;BA;PB;PI;SP;ES;RS;AL;MA;BA;MG;SP;SP;PR;BA;MG</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2273510</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>PL 902/2021</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Dispõe sobre os empreendimentos de turismo rural da agricultura familiar.</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Aline Sleutjes</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2273861</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>PL 2975/2021</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Institui o Dia Nacional da Agricultura Irrigada.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Zé Vitor</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2296359</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>PL 2296/2021</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Institui o Dia Nacional da Agricultura Irrigada.</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Professora Dorinha Seabra Rezende</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2288020</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>PL 1485/2021</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 11.343 de 23 de agosto de 2006, para autorizar a Empresa Brasileira de Pesquisa Agropecuária (Embrapa), vinculada ao Ministério da Agricultura, Pecuária e Abastecimento, e as universidades federais a implementarem o plantio, a cultura e a colheita, do vegetal denominado Cannabis sativa, exclusivamente para fins medicinais ou científicos.</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Valmir Assunção</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2278709</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>PL 312/2021</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Institui linha de crédito destinada ao financiamento da primeira aquisição de terras por agricultor familiar.</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Marcelo Brum</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2269705</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>PL 952/2021</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 12.188, de 11 de janeiro de 2010, que ?Institui a Política Nacional de Assistência Técnica e Extensão Rural para a Agricultura Familiar e Reforma Agrária - PNATER e o Programa Nacional e Assistência Técnica e Extensão Rural na Agricultura Familiar e na Reforma Agrária - PRONATER, altera a Lei nº 8.666, de 21 de junho de 1993 e dá outras providências?.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Coronel Chrisóstomo</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2274252</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>PL 944/2021</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Suspende os pagamentos das parcelas dos empréstimos dos agricultores familiares do PRONAF Junto às Instituições Financeiras até o final do estado de calamidade pública decorrente da Pandemia do Covid 19 no país</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>José Airton Félix Cirilo</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2274130</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>PL 4486/2021</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Cria o Programa Água Boa, medida de combate à seca, destinado à implantação de soluções urbanas e rurais individuais, locais, comunitárias, de agricultura familiar e comunidades quilombolas remanescentes, de captação de águas do subsolo e do lençol freático e sua dessalinização para consumo humano e animal.</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Walter Alves</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2312898</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>PL 4074/2021</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Dispõe sobre a sobre a reserva de áreas para implementação de sistemas produtivos de agricultura urbana ou periurbana no âmbito de programas habitacionais públicos federais ou financiados com recursos públicos federais.</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Célio Moura ;Nilto Tatto ;João Daniel ;Marília Arraes ;Beto Faro ;Bohn Gass ;Patrus Ananias ;Leonardo Monteiro ;Rogério Correia ;José Ricardo ;Enio Verri ;Rejane Dias ;Marcon ;Paulo Guedes ;Paulão ;Frei Anastacio Ribeiro ;Valmir Assunção ;Professora Rosa Neide ;Alexandre Padilha ;José Guimarães ;Carlos Veras ;Leo de Brito;Airton Faleiro ;Helder Salomão ;Erika Kokay</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>TO;SP;SE;PE;PA;RS;MG;MG;MG;AM;PR;PI;RS;MG;AL;PB;BA;MT;SP;CE;PE;AC;PA;ES;DF</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2307615</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>PL 2160/2021</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Dá nova redação ao Parágrafo único do art. 6º e acrescenta § 3º no art. 14º da Lei 11.947, de 16 de junho de 2009, de forma a criar índice de reajuste aos repasses de valores para a alimentação escolar aos estados, Distrito Federal e municípios e cria índice de reajuste de teto para a comercialização de alimentos da agricultura familiar para o Programa Nacional de Alimentação Escolar (PNAE).</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Heitor Schuch</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2286580</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>PL 349/2021</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Cria o Selo de Inclusão Tecnológica no Campo e dá incentivo tributário a pessoas jurídicas que doem recursos para a contratação de serviços de assistência técnica e extensão rural para agricultores familiares situados abaixo da linha de pobreza.</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Zé Silva</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>SOLIDARI</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2269821</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>PL 2977/2021</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Institui o Dia Nacional da Agricultura Irrigada.</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Professora Dorinha Seabra Rezende</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2296383</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>PL 3265/2021</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Esta lei dispõe sobre a inclusão de alimentos da agricultura familiar, preferencialmente de produção com base agroecológica ou orgânica, na alimentação da rede hospitalar, estabelece critérios para esta inclusão e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Alexandre Frota</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2299900</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>PL 929/2021</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Cria o Serviço Nacional de Apoio ao Agricultor Familiar - SENAF</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>José Medeiros</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2274018</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>PL 2291/2022</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 11.326, de 24 de julho de 2006, para determinar que a Política Nacional da Agricultura Familiar e Empreendimentos Familiares Rurais priorize à mulher chefe de família o acesso às linhas de crédito e aos mecanismos para comercialização dos alimentos produzidos.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Rejane Dias</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2334040</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>PL 2413/2022</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Cria o Programa Nacional de Agricultura Sustentável e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Rubens Pereira Júnior</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2334931</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>PL 426/2022</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Altera a Lei no 11.326, de 24 de julho de 2006, para dispor sobre a assistência técnica e material ao agricultor familiar.</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Marreca Filho</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2316673</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>PL 2953/2022</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Institui o Programa de Energia Renovável para Agricultura Familiar e para Consumidores de Baixa Renda - Programa Luz do Sol e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Carlos Veras</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2341800</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>PL 121/2022</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 11.346, de 15 de setembro de 2006, para prever percentuais mínimos de produtos da agricultura familiar nas cestas básicas que forem distribuídas no âmbito do Sistema Nacional de Segurança Alimentar e Nutricional - Sisan.</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Heitor Schuch</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2313981</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>PL 2979/2022</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 14.118, de 12 de janeiro de 2021, para definir os agricultores atendidos pelo Programa Casa Verde e Amarela.</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Carlos Henrique Gaguim</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>UNIÃO</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2342791</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>PL 3095/2022</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 6.894, de 16 de dezembro de 1980, que dispõe sobre a inspeção e a fiscalização da produção e do comércio de fertilizantes, corretivos, inoculantes, estimulantes ou biofertilizantes, remineralizadores e substratos para plantas, destinados à agricultura, e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Beto Rosado</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2345330</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>PL 1003/2022</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Dispõe sobre o Programa Nacional de Fortalecimento da Agricultura Familiar - PRONAF, e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Airton Faleiro;João Daniel;Bohn Gass;Célio Moura;Padre João;Professora Rosa Neide;Paulo Pimenta;Paulo Teixeira;Leonardo Monteiro;Leo de Brito;Vilson da Fetaemg;Rubens Pereira Júnior;Afonso Florence;José Guimarães;Alencar Santana;Rejane Dias;Henrique Fontana;Rogério Correia;Helder Salomão;Alice Portugal;Gleisi Hoffmann;Daniel Almeida;Zé Carlos;Flávio Nogueira;Natália Bonavides;Pedro Uczai;José Ricardo;Valmir Assunção;Reginaldo Lopes;Frei Anastacio Ribeiro;Vander Loubet;Luizianne Lins;Vicentinho;W e Outros.</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>PA;SE;RS;TO;MG;MT;RS;SP;MG;AC;MG;MA;BA;CE;SP;PI;RS;MG;ES;BA;PR;BA;MA;PI;RN;SC;AM;BA;MG;PB;MS;CE;SP;BA;PI;PE;PA;BA;SP;RS;MA</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PSB;PT;PT;PT;PT;PT;PT;PT;PT;PCdoB;PT;PCdoB;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PSB</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2320332</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>PL 1306/2022</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Dispõe sobre medidas de amparo à agricultura familiar, para estimular o aumento da produção e da geração de renda.</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Marreca Filho</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2323871</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>PL 19/2022</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Dispõe sobre medidas emergenciais de amparo aos agricultores familiares para mitigar os impactos socioeconômicos da seca e das enchentes que incidem sobre o país desde o ano de 2021, e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Pedro Uczai ;Marcon ;Bohn Gass ;Célio Moura ;Airton Faleiro ;Valmir Assunção ;Maria do Rosário ;Nilto Tatto ;Enio Verri ;Carlos Veras ;Waldenor Pereira ;Professora Rosa Neide ;Paulão ;José Guimarães ;Gleisi Hoffmann ;Paulo Teixeira ;Rogério Correia ;Alencar Santana Braga ;Alexandre Padilha ;Patrus Ananias ;Helder Salomão ;Leo de Brito;Merlong Solano ;Benedita da Silva ;Arlindo Chinaglia ;Jorge Solla ;Rubens Otoni ;Carlos Zarattini ;Camilo Capiberibe ;Perpétua Almeida ;Professora Marcivania ;Luiz e Outros.</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>SC;RS;RS;TO;PA;BA;RS;SP;PR;PE;BA;MT;AL;CE;PR;SP;MG;SP;SP;MG;ES;AC;PI;RJ;SP;BA;GO;SP;AP;AC;AP;CE;SE;PB;MS;PI;MG;SP;RN;PE;MA;SP;DF;BA;PA;RS;BA;MG;AM;PE;RS;SP;RS;MA;BA;MG;CE;BA;PA;SP;MG;PE;MG;SP;SP;RJ</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PSB;PCdoB;PCdoB;PT;PT;PT;PT;PT;PT;PT;PT;PDT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PT;PSB;PCdoB;PT;PCdoB;PCdoB;PSB;PT;PT;PSOL;PSOL;PT;PDT;PT;PSOL;PSOL;PSOL</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2313797</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>PL 2510/2019</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 12.651, de 25 maio de 2012, para dispor sobre as áreas de proteção permanente no perímetro urbano e nas regiões metropolitanas. NOVA EMENTA: Altera as Leis nºs 12.651, de 25 de maio de 2012, que dispõe sobre a proteção da vegetação nativa, 11.952, de 25 de junho de 2009, que dispõe sobre regularização fundiária em terras da União, e 6.766, de 19 de dezembro de 1979, que dispõe sobre o parcelamento do solo urbano, para dispor sobre as áreas de preservação permanente no entorno de  ...</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Rogério Peninha Mendonça</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2199215</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>PL 1426/2020</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 10.304, de 5 de novembro de 2001, que transfere ao domínio dos Estados de Roraima e do Amapá terras pertencentes à União, e as Leis nº 12.651, de 25 de maio de 2012 ? Código Florestal, e 6.634, de 2 de maio de 1979; desafeta, para transferência ao Estado de Roraima, parte da área da Floresta Nacional de Roraima.</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Hiran Gonçalves;Ottaci Nascimento;Haroldo Cathedral;Nicoletti</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>RR;RR;RR;RR</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>PP;SOLIDARI;PSD;PSL</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2242709</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>PL 810/2020</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 8.629, de 25 de fevereiro de 1993, para que se estimule e facilite a titulação de terras a mulheres trabalhadoras rurais no âmbito da reforma agrária.</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>José Guimarães</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2241668</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>PL 2320/2020</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 10.304, de 5 de novembro de 2001, que transfere ao domínio dos Estados de Roraima e do Amapá terras pertencentes à União e a Lei nº 6.634, de 2 de maio de 1979, que dispõe sobre a Faixa de Fronteira e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Mauro Nazif</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2251029</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>PL 2322/2020</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Dispõe sobre a transferência ao Estado de Rondônia das terras pertencentes à União dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Mauro Nazif</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2251064</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>PL 3112/2020</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Dispõe a proibição de atividade de mineração nas terras indígenas demarcadas e dá outras providencias.</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Alexandre Frota</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2254467</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>PL 2633/2020</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Altera a Lei n° 11.952, de 25 de junho de 2009, que dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União; a Lei n° 8.666, de 21 de junho de 1993, que institui normas para licitações e contratos da administração pública; a Lei nº 6.015, de 31 de dezembro de 1973, que dispõe sobre os registros públicos; a fim de ampliar o alcance da regularização fundiária e dar outras providências. NOVA EMENTA: Altera as Leis nºs 11.952, de 25 de junho de 2009, 14.1 ...</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Zé Silva</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>SOLIDARI</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2252589</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>PL 4669/2020</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 9.605, de 12 de fevereiro de 1998, e a Lei nº 12.651, de 25 de maio de 2012, para determinar a perda da terra desmatada e estabelecer que áreas rurais com floresta nativa submetidas a queimadas ilegais serão convertidas em reserva legal.</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Felipe Carreras</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2263115</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>PL 4347/2021</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Institui a Política Nacional de Gestão Territorial e Ambiental de Terras Indígenas ? PNGATI.</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Joenia Wapichana</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2311272</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>PL 3280/2021</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Dispõe sobre a regularização documental de imóveis das ocupações incidentes em terras situadas em áreas rurais de domínio particular, fora da Amazônia Legal, e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Heitor Schuch</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2300019</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>PL 1730/2021</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 11.952, de 25 de junho de 2009, que ?dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União?; Lei nº 6.015, de 31 de dezembro de 1973, que ?dispõe sobre os registros públicos?; Lei nº 10.304, de 5 de novembro de 2001, que ?transfere ao domínio dos Estados de Roraima e do Amapá terras pertencentes à União?; Lei nº 13.240, de 30 de dezembro de 2015, que ?dispõe sobre a administração, a alienação, a transferência de gestão de imóveis da  ...</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Lucio Mosquini</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2281087</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>PL 1443/2021</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Dispõe sobre a liberdade econômica indígena, garantindo a autonomia das comunidades na gestão e uso de suas terras e patrimônio.</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Carla Zambelli</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2278494</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>PL 3240/2021</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Dispõe sobre proibição de autorização de pesquisa e concessão de lavra para aproveitamento de jazidas em áreas localizadas em terras indígenas e eleva as penas para extração ilegal de recursos ambientais localizados nessas áreas.</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Joenia Wapichana</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2299587</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>PL 1730/2022</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 10.826, de 22 de dezembro de 2006 ? Estatuto do Desarmamento, para autorizar o porte de arma de fogo para os servidores da Fundação Nacional do Índio ? FUNAI que efetivamente exerçam atividades em terras indígenas.</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Gutemberg Reis</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2329845</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
           <t>PL 1942/2022</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
+      <c r="C378" t="inlineStr">
         <is>
           <t>Dispõe sobre o procedimento para a identificação, a delimitação, o reconhecimento e a titulação das terras ocupadas por remanescentes das comunidades dos quilombos de que trata o art. 68 do Ato das Disposições Constitucionais Transitórias.</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr">
+      <c r="D378" t="inlineStr">
         <is>
           <t>Coronel Armando</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
+      <c r="E378" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
+      <c r="F378" t="inlineStr">
         <is>
           <t>PL</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
+      <c r="G378" t="inlineStr">
         <is>
           <t>/proposicoesWeb/fichadetramitacao?idProposicao=2331808</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
+      <c r="H378" t="inlineStr">
         <is>
           <t>Agricultura</t>
         </is>
       </c>
-      <c r="I307" t="n">
+      <c r="I378" t="n">
         <v>2022</v>
       </c>
-      <c r="J307" t="inlineStr">
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>PL 250/2022</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 12.651, de 25 de maio de 2012; a Lei nº 6.015, de 31 de dezembro de 1973 ? Lei dos Registros Públicos; a Lei nº 4.947, de 6 de abril de 1966; e a nº Lei 5.868/1972, de 12 de dezembro de 1972 , para instituir e ampliar a transparência dos dados sobre posse e propriedade de terras.</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Tabata Amaral ;Fábio Trad ;Alex Manente ;Felipe Rigoni ;Carla Dickson;Roberto de Lucena ;Professora Dayane Pimentel ;Professor Israel Batista ;Rodrigo Agostinho ;Bira do Pindaré</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>SP;MS;SP;ES;RN;SP;BA;DF;SP;MA</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>PSB;PSD;CIDADANIA;UNIÃO;PROS;PODE;UNIÃO;PV;PSB;PSB</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2314511</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>PL 1733/2022</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 10.826, de 22 de dezembro de 2006 ? Estatuto do Desarmamento, para autorizar o porte de arma de fogo para os servidores da Fundação Nacional do Índio ? FUNAI que efetivamente exerçam atividades em terras indígenas.</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Gutemberg Reis</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2329921</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I380" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>PL 2933/2022</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Altera o art. 55 da Lei nº 9.605, de 12 de fevereiro de 1998, para estabelecer causas de aumento de pena em razão do financiamento do crime e de seu cometimento em terras indígenas.</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Joenia Wapichana;José Ricardo;Patrus Ananias;Carlos Veras;Rodrigo Agostinho;Airton Faleiro;Túlio Gadêlha;Erika Kokay;Alice Portugal;Camilo Capiberibe;Professora Marcivania;Orlando Silva;Perpétua Almeida;Nilto Tatto;Talíria Petrone;Tereza Nelma;Sâmia Bomfim;Ivan Valente;Fernanda Melchionna</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>RR;AM;MG;PE;SP;PA;PE;DF;BA;AP;AP;SP;AC;SP;RJ;AL;SP;SP;RS</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>REDE;PT;PT;PT;PSB;PT;REDE;PT;PCdoB;PSB;PCdoB;PCdoB;PCdoB;PT;PSOL;PSD;PSOL;PSOL;PSOL</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2341444</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>PL 3045/2019</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Dispõe sobre o exercício de atividades agrossilvipastoris em terras indígenas e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Nelson Barbudo</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2204216</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I382" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>PL 4447/2019</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Dispõe sobre o uso sustentável do solo e dos recursos naturais em terras indígenas.</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Silas Câmara</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2214933</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I383" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>PL 5014/2020</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Proíbe a utilização agropecuária ou urbana das terras com cobertura vegetal nativa ilegalmente desmatadas ou queimadas, pelo prazo de 20 anos.</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Nilto Tatto;Alencar Santana Braga</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>SP;SP</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>PT;PT</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2264636</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I384" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>PL 1426/2020</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 10.304, de 5 de novembro de 2001, que transfere ao domínio dos Estados de Roraima e do Amapá terras pertencentes à União, e as Leis nº 12.651, de 25 de maio de 2012 ? Código Florestal, e 6.634, de 2 de maio de 1979; desafeta, para transferência ao Estado de Roraima, parte da área da Floresta Nacional de Roraima.</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Hiran Gonçalves;Ottaci Nascimento;Haroldo Cathedral;Nicoletti</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>RR;RR;RR;RR</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>PP;SOLIDARI;PSD;PSL</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2242709</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I385" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>PL 810/2020</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 8.629, de 25 de fevereiro de 1993, para que se estimule e facilite a titulação de terras a mulheres trabalhadoras rurais no âmbito da reforma agrária.</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>José Guimarães</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2241668</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I386" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>PL 191/2020</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Regulamenta o § 1º do art. 176 e o § 3º do art. 231 da Constituição para estabelecer as condições específicas para a realização da pesquisa e da lavra de recursos minerais e hidrocarbonetos e para o aproveitamento de recursos hídricos para geração de energia elétrica em terras indígenas e institui a indenização pela restrição do usufruto de terras ...</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Poder Executivo</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2236765</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I387" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>PL 2633/2020</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Altera a Lei n° 11.952, de 25 de junho de 2009, que dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União; a Lei n° 8.666, de 21 de junho de 1993, que institui normas para licitações e contratos da administração pública; a Lei nº 6.015, de 31 de dezembro de 1973, que dispõe sobre os registros públicos; a fim de ampliar o alcance da regularização fundiária e dar outras providências. NOVA EMENTA: Altera as Leis nºs 11.952, de 25 de junho de 2009, 14.1 ...</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Zé Silva</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>SOLIDARI</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2252589</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I388" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>PL 2550/2021</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 11.952, de 25 de junho de 2009, que "Dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União, no âmbito da Amazônia Legal; altera as Leis nos 8.666, de 21 de junho de 1993, e 6.015, de 31 de dezembro de 1973; e dá outras providências", para dispor sobre a possibilidade de emissão da Certidão de Reconhecimento de Ocupação.</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Jaqueline Cassol</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2291073</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I389" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>PL 3280/2021</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Dispõe sobre a regularização documental de imóveis das ocupações incidentes em terras situadas em áreas rurais de domínio particular, fora da Amazônia Legal, e dá outras providências.</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Heitor Schuch</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2300019</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>PL 3915/2021</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 11.952, de 25 de junho de 2009, que ?Dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União, no âmbito da Amazônia Legal; altera as Leis nº 8.666, de 21 de junho de 1993, e 6.015, de 31 de dezembro de 1973; e dá outras providências?.</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Zé Vitor</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2305948</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>PL 1730/2021</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Altera a Lei nº 11.952, de 25 de junho de 2009, que ?dispõe sobre a regularização fundiária das ocupações incidentes em terras situadas em áreas da União?; Lei nº 6.015, de 31 de dezembro de 1973, que ?dispõe sobre os registros públicos?; Lei nº 10.304, de 5 de novembro de 2001, que ?transfere ao domínio dos Estados de Roraima e do Amapá terras pertencentes à União?; Lei nº 13.240, de 30 de dezembro de 2015, que ?dispõe sobre a administração, a alienação, a transferência de gestão de imóveis da  ...</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Lucio Mosquini</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2281087</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I392" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>PL 312/2021</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Institui linha de crédito destinada ao financiamento da primeira aquisição de terras por agricultor familiar.</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Marcelo Brum</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2269705</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I393" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>Não Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>PL 1942/2022</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Dispõe sobre o procedimento para a identificação, a delimitação, o reconhecimento e a titulação das terras ocupadas por remanescentes das comunidades dos quilombos de que trata o art. 68 do Ato das Disposições Constitucionais Transitórias.</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Coronel Armando</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>/proposicoesWeb/fichadetramitacao?idProposicao=2331808</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Agricultura</t>
+        </is>
+      </c>
+      <c r="I394" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J394" t="inlineStr">
         <is>
           <t>Não Aprovado</t>
         </is>
